--- a/Dataset/Captions collection/v7_train_captions_collection.xlsx
+++ b/Dataset/Captions collection/v7_train_captions_collection.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>The shown line chart illustrates TKN_About values about total hardwood in TKN_Geo during TKN_Year. The production is described using cubic metres as unit of measure. The values have been significantly oscillating over the year. In particular, TKN_About reached its maximum value during the month of May and its minimum value during July. After July, it rapidly grown up again, reaching an another peak during October. </t>
+          <t>The shown line chart illustrates the TKN_About hardwood in TKN_Geo during TKN_Year. The production is described using TKN_UOM as unit of measure. The values have been significantly oscillating over the year. In particular, TKN_About reached its maximum value during the month of May and its minimum value during July. After July, it rapidly grown up again, reaching an another peak during October. </t>
         </is>
       </c>
       <c r="Y3" t="n">
@@ -753,7 +753,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>This figure depicts the total Canadian TKN_About in cubic metres of TKN_Year. Whereas it starts off in January at approximately 63 cubic TKN_About fluctuates until reaching its maximum in May at around 104. There is a sudden drop, reaching the minimum annual value in July at below 11 cubic metres. Production then again rises from July until October and experiences a drop from October until December. </t>
+          <t>This figure depicts the TKN_About in TKN_UOM of TKN_Year. Whereas it starts off in January at approximately TKN_UOM TKN_About fluctuates until reaching its maximum in May at around 104. There is a sudden drop, reaching the minimum annual value in July at below TKN_UOM metres. Production then again rises from July until October and experiences a drop from October until December. </t>
         </is>
       </c>
       <c r="Y4" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>The following line chart provides information about the TKN_About of hardwood in TKN_Geo during TKN_Year. The production values have been described using cubic metres as unit of measure. The values have been strongly fluactuating over the year. It shows several peaks and dips over the year. Even that, the maximum value has been recorded during March and the minimum during July. </t>
+          <t>The following line chart provides information about the TKN_About of hardwood in TKN_Geo during TKN_Year. The production values have been described using TKN_UOM as unit of measure. The values have been strongly fluactuating over the year. It shows several peaks and dips over the year. Even that, the maximum value has been recorded during March and the minimum during July. </t>
         </is>
       </c>
       <c r="Y5" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Hardwood production in TKN_Geo for each month of TKN_Year. While production varied between less than 11 cubic metres and over 99 cubic metres in a given month, there do not seem to be any trends in the value over time. </t>
+          <t>Hardwood production in TKN_Geo for each month of TKN_Year. While production varied between less than 11 TKN_UOM and over 99 TKN_UOM in a given month, there do not seem to be any trends in the value over time. </t>
         </is>
       </c>
       <c r="Y6" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>The graph is showing the production's trend of total hardwood in TKN_Geo during TKN_Year. The values are in cubic metres. It's clearly possible to see how the values are strongly fluctuating over the year. There are several peaks, in particular during March, May and Novembe. At the same time, the minimum values have been recorded during the months of January, July and August. </t>
+          <t>The graph is showing the production's trend TKN_About hardwood in TKN_Geo during TKN_Year. The values are TKN_UOM metres. It's clearly possible to see how the values are strongly fluctuating over the year. There are several peaks, in particular during March, May and Novembe. At the same time, the minimum values have been recorded during the months of January, July and August. </t>
         </is>
       </c>
       <c r="Y7" t="n">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>This line chart depicts the total TKN_About in cubic metres of TKN_Geo in TKN_Year. Production starts at approximately 59 cubic metres during January, after which a moderate increase can be observed until reaching about 95 in March. Production remains steady at 73 during April and May, after which the TKN_About is achieved in June with 99 cubic metres. There is a sharp drop in July, a rapid increase until November until the minimum value of approximately 3 is reached in December. </t>
+          <t>This line chart depicts the TKN_About in TKN_UOM of TKN_Geo in TKN_Year. Production starts at approximately 59 TKN_UOM during January, after which a moderate increase can be observed until reaching about 95 in March. Production remains steady at 73 during April and May, after which the maximum production is achieved in June with TKN_UOM metres. There is a sharp drop in July, a rapid increase until November until the minimum value of approximately 3 is reached in December. </t>
         </is>
       </c>
       <c r="Y8" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>The following line chart describes TKN_About values of total hardwood in TKN_Geo during TKN_Year. The unit of measurement of the data is cubic metres. The production showed several peaks during the year, mainly during March, June and November. Furthermore, a significant drop has been recorded between the months of June and July. </t>
+          <t>The following line chart describes the TKN_About hardwood in TKN_Geo during TKN_Year. The unit of measurement of the data TKN_UOM metres. The production showed several peaks during the year, mainly during March, June and November. Furthermore, a significant drop has been recorded between the months of June and July. </t>
         </is>
       </c>
       <c r="Y9" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>In this graph, one can see the total TKN_About in TKN_Geo. Production of TKN_Year is measured in cubic meters. The graph is M-shaped, with lows in January, TKN_About highs in March and November. </t>
+          <t>In this graph, one can see the TKN_About in TKN_Geo. Production of TKN_Year is measured TKN_UOM meters. The graph is M-shaped, with lows in January, TKN_About highs in March and November. </t>
         </is>
       </c>
       <c r="Y11" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>The TKN_About of wood in TKN_Year. It stayed at TKN_About about 97 cubic meters except for two dips in July with 34 cubic meters and December with below 7 cubic meters. </t>
+          <t>The TKN_About of wood in TKN_Year. It stayed at TKN_About about TKN_UOM meters except for two dips in July with 34 cubic meters and December with below 7 cubic meters. </t>
         </is>
       </c>
       <c r="Y12" t="n">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>This graph depicts the total Canadian TKN_About of TKN_Year. The unit used is cubic metres. Production during January lies TKN_About experiences an increase until reaching the maximum value in March at above 99. From then production slowly declines until June, after which a sharp drop can be observed in July at approximately 34. From TKN_About levels increase again, reaching a value of nearly 98. There is a TKN_About in December, which marks the lowest production of the year at -2 cubic metres. </t>
+          <t>This graph depicts the TKN_About of TKN_Year. The unit used TKN_UOM metres. Production during January lies at approximately 61 and experiences an increase until reaching the maximum value in March at above 99. From then production slowly declines until June, after which a sharp drop can be observed in July at approximately 34. From TKN_About levels increase again, reaching a value of nearly 98. There is a TKN_About in December, which marks the lowest production of the year at TKN_UOM metres. </t>
         </is>
       </c>
       <c r="Y13" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>The graphs shows the total TKN_About in TKN_Geo in the year TKN_Year. As can be seen in TKN_About changes very much over the year. Initially, the value falls to February before TKN_About reaching a maximum of over 60,000 cubic meters. It is TKN_About is lower in the summer months. However, the minimum is reached in December. </t>
+          <t>The graphs shows the TKN_About in TKN_Geo in the year TKN_Year. As can be seen in TKN_About changes very much over the year. Initially, the value falls to February before TKN_About reaching a maximum of over TKN_UOM meters. It is TKN_About is lower in the summer months. However, the minimum is reached in December. </t>
         </is>
       </c>
       <c r="Y15" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>The total TKN_About in TKN_Geo showed an oscillating trend over TKN_Year. In particular, couple of peaks have been registered, mainly during the TKN_About May. At the TKN_About value showed its minimum values during the months of July and December. The most considerable drop of the value was registered between the TKN_About December. </t>
+          <t>The TKN_About in TKN_Geo showed an oscillating trend over TKN_Year. In particular, couple of peaks have been registered, mainly during the TKN_About May. At the TKN_About value showed its minimum values during the months of July and December. The most considerable drop of the value was registered between the TKN_About December. </t>
         </is>
       </c>
       <c r="Y16" t="n">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>The image reports a line chart about the total TKN_About (in cubic metres) in Canda during TKN_Year. The values are fluctuating over the months, reaching a peak during May TKN_Year. At the same time it's clearly possible to see that December TKN_Year has been the month with less production. </t>
+          <t>The image reports a line chart about the TKN_About TKN_UOM metres) in Canda during TKN_Year. The values are fluctuating over the months, reaching a peak during May TKN_Year. At the same time it's clearly possible to see that December TKN_Year has been the month with less production. </t>
         </is>
       </c>
       <c r="Y17" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>The following line chart is about the TKN_About hardwood in TKN_Geo during TKN_Year. The described values are in cubic metres. It's clearly possible to TKN_About fluctuated over the year, with several peaks and dips. But at the end of the TKN_About December, has been registered a significant drop of the value. </t>
+          <t>The following line chart is about the TKN_About hardwood in TKN_Geo during TKN_Year. The described values are TKN_UOM metres. It's clearly possible to TKN_About fluctuated over the year, with several peaks and dips. But at the end of the TKN_About December, has been registered a significant drop of the value. </t>
         </is>
       </c>
       <c r="Y18" t="n">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>The total TKN_About in TKN_Geo has been strongly fluctuating over TKN_Year. It's clearly possible to TKN_About dips. The maximum value was during May. Even that, the production value strongly dropped down from October to December, reaching its minimum value of the year. </t>
+          <t>The TKN_About in TKN_Geo has been strongly fluctuating over TKN_Year. It's clearly possible to TKN_About dips. The maximum value was during May. Even that, the production value strongly dropped down from October to December, reaching its minimum value of the year. </t>
         </is>
       </c>
       <c r="Y19" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>The graph indicates the number of cubic meters of soft TKN_About in TKN_Geo for TKN_Year. Production is highest in spring time and drops to its lowest in December. </t>
+          <t>The graph indicates the number TKN_UOM meters of soft TKN_About in TKN_Geo for TKN_Year. Production is highest in spring time and drops to its lowest in December. </t>
         </is>
       </c>
       <c r="Y20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Total softwood production in cubic meters in TKN_Geo in TKN_Year is shown in the graph. Production in January starts at roughly 88 m3, and it shrinks the next month. In March, this value goes back up and remains steady until May. It plunges until July to the same value as in February and then it oscilates between this value and the one in January until November to drop again to -2 m3 in December. </t>
+          <t>Total softwood production TKN_UOM meters in TKN_Geo in TKN_Year is shown in the graph. Production in January starts at roughly 88 m3, and it shrinks the next month. In March, this value goes back up and remains steady until May. It plunges until July to the same value as in February and then it oscilates between this value and the one in January until November to drop again to -2 m3 in December. </t>
         </is>
       </c>
       <c r="Y21" t="n">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>This graph depicts the total Canadian TKN_About in cubic metres in TKN_Year. The unit given is cubic metres. Production starts at around 85 in January and drops to approximately 59 in February. It then fluctuates around 98 between the months of March and May, until it drops back to TKN_About numbers of February during July. Production of softwood fluctuates between July until October, reaching around 85. Afterwards a sharp decline can be observed until December, which marks the TKN_About numbers for this year at around -2. </t>
+          <t>This graph depicts the TKN_About in TKN_UOM in TKN_Year. The unit given TKN_UOM metres. Production starts at around 85 in January and drops to approximately 59 in February. It then fluctuates around 98 between the months of March and May, until it drops back to TKN_About numbers of February during July. Production of softwood fluctuates between July until October, reaching around 85. Afterwards a sharp decline can be observed until December, which marks the TKN_About numbers for this year at around -2. </t>
         </is>
       </c>
       <c r="Y22" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>The graph shows TKN_About of softwood in TKN_Geo over the year of TKN_Year. The data is presented in cubic meters. According to the graph TKN_About of softwood is the highest in March and the lowest in December. </t>
+          <t>The graph shows TKN_About of softwood in TKN_Geo over the year of TKN_Year. The data is presented TKN_UOM meters. According to the graph TKN_About of softwood is the highest in March and the lowest in December. </t>
         </is>
       </c>
       <c r="Y23" t="n">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>The total TKN_About in TKN_Geo during TKN_Year considerably oscillated up and down over the year. The maximum value was recorded in May TKN_Year. But at the same time, two other peaks were in May and October. The minimum value over the whole TKN_Year was during December TKN_Year, with less than 9 cubic metres producted. </t>
+          <t>The TKN_About in TKN_Geo during TKN_Year considerably oscillated up and down over the year. The maximum value was recorded in May TKN_Year. But at the same time, two other peaks were in May and October. The minimum value over the whole TKN_Year was during December TKN_Year, with less than 9 TKN_UOM producted. </t>
         </is>
       </c>
       <c r="Y25" t="n">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Softwood and hardwood stock totals in Canada during each month of 2016.</t>
+          <t>Softwood and hardwood stock totals in Canada during each month of 2016. The total rose from slightly over 72000 cubic meters in January to over 75000 cubic meters in April. It then experienced a drop to less than 68000 cubic meters from May to July, after which it continued to decline until reaching a minimum level in December of under 66000 cubic meters. </t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Softwood and hardwood stock totals in TKN_Geo during each month of TKN_Year.</t>
+          <t>Softwood and hardwood stock totals in TKN_Geo during each month of TKN_Year. The total rose from slightly over TKN_UOM meters in January to over 97 cubic meters in April. It then experienced a drop to less than TKN_UOM meters from May to July, after which it continued to decline until reaching a minimum level in December of under 4 cubic meters. </t>
         </is>
       </c>
       <c r="Y26" t="n">
@@ -2818,12 +2818,12 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>It illustrates the stocks of softwood and hardwood in Canada during 2016 using cubic metres as unit of measurement.</t>
+          <t>It illustrates the stocks of softwood and hardwood in Canada during 2016 using cubic metres as unit of measurement. From January to April has been recorded a slightly increase. The value significantly dropped from May to July, and then it remain steady for the last months of the year. The minimum value has been recorded during the month of December. </t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>It illustrates the TKN_About hardwood in TKN_Geo during TKN_Year using cubic metres as unit of measurement.</t>
+          <t>It illustrates the TKN_About hardwood in TKN_Geo during TKN_Year using TKN_UOM as unit of measurement. From January to April has been recorded a slightly increase. The value significantly dropped from TKN_About then it remain steady for the last months of the year. The minimum value has been recorded during the month of December. </t>
         </is>
       </c>
       <c r="Y27" t="n">
@@ -2908,12 +2908,12 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>The value about softwood and hardwoock stocks in Canada rapidly increased during the first months of 2016.</t>
+          <t>The value about softwood and hardwoock stocks in Canada rapidly increased during the first months of 2016. After that, a considerable drop was recorded between the months of May and July. During the last months of the year the softwood and hardwood stocks slowly declined. The minimum value has been reached during the month of December. </t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>The value about TKN_About in TKN_Geo rapidly increased during the first months of TKN_Year.</t>
+          <t>The value about TKN_About in TKN_Geo rapidly increased during the first months of TKN_Year. After that, a considerable drop was recorded between the TKN_About July. During the last months of the year the TKN_About slowly declined. The minimum value has been reached during the month of December. </t>
         </is>
       </c>
       <c r="Y28" t="n">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>The following line chart is about the house TKN_About in TKN_Geo during TKN_Year. From the graph it's clearly possible to TKN_About values have been steadily growing during TKN_Year. Few light fluctuations have been reported during the summer months. </t>
+          <t>The following line chart is about TKN_About TKN_UOM in TKN_Geo during TKN_Year. From the graph it's clearly possible to see how TKN_UOM values have been steadily growing during TKN_Year. Few light fluctuations have been reported during the summer months. </t>
         </is>
       </c>
       <c r="Y29" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Line chart showing the increase of the TKN_About in TKN_Year in TKN_Geo. </t>
+          <t>Line chart showing the increase of TKN_About TKN_UOM in TKN_Year in TKN_Geo. </t>
         </is>
       </c>
       <c r="Y30" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the house TKN_About in TKN_Geo has been slowly but constantly increasing over TKN_Year. It presented few fluactuations, but none of them are significant. </t>
+          <t>It's clearly possible to see how TKN_About TKN_UOM in TKN_Geo has been slowly but constantly increasing over TKN_Year. It presented few fluactuations, but none of them are significant. </t>
         </is>
       </c>
       <c r="Y31" t="n">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>The graph shows the values of TKN_About in TKN_Geo during TKN_Year. It's clearly possible to see how it rapidly increased over the year, with really few and light fluctuations. The minimum value has been recorded during January and the maximum one during December. </t>
+          <t>The graph shows the values TKN_About TKN_UOM in TKN_Geo during TKN_Year. It's clearly possible to see how it rapidly increased over the year, with really few and light fluctuations. The minimum value has been recorded during January and the maximum one during December. </t>
         </is>
       </c>
       <c r="Y32" t="n">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>The graph shows the house TKN_About increasing over the year. It stayed the same for the mon of May and September but was increasing continuously throughout the year otherwise. </t>
+          <t>The graph shows TKN_About TKN_UOM increasing over the year. It stayed the same for the mon of May and September but was increasing continuously throughout the year otherwise. </t>
         </is>
       </c>
       <c r="Y33" t="n">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>The graph indicates the house TKN_About in canada in the year TKN_Year. As shown TKN_About increases during the hole year until he reaches the maximum of 100 in December. Unfortunately, you can not say more about this graph. </t>
+          <t>The graph indicates TKN_About TKN_UOM in canada in the year TKN_Year. As shown TKN_UOM increases during the hole year until he reaches the maximum of 100 in December. Unfortunately, you can not say more about this graph. </t>
         </is>
       </c>
       <c r="Y34" t="n">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>This chart illustrates the land TKN_About of TKN_Geo in TKN_Year. A minimum of 511811 can be observed throughout the months of January until April. A slow, but constant increase takes place from April until August, reaching a value of almost 46811. From August onwards a sharp increase can be seen, until reaching its maximum during November and December at 47468. </t>
+          <t>This chart illustrates TKN_About TKN_UOM of TKN_Geo in TKN_Year. A minimum of 511811 can be observed throughout the months of January until April. A slow, but constant increase takes place from April until August, reaching a value of almost 46811. From August onwards a sharp increase can be seen, until reaching its maximum during November and December at 47468. </t>
         </is>
       </c>
       <c r="Y35" t="n">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>This line graph displays the land TKN_About in TKN_Geo for TKN_Year. The index is unchanged from January to April, where it rises steadily until August. From August to November there is a steep increase, with the value remaining unchanged in December. </t>
+          <t>This line graph displays TKN_About TKN_UOM in TKN_Geo for TKN_Year. The index is unchanged from January to April, where it rises steadily until August. From August to November there is a steep increase, with the value remaining unchanged in December. </t>
         </is>
       </c>
       <c r="Y36" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>The land TKN_About in TKN_Geo during TKN_Year has been showing a slight but constant ascendant trend. In particular, from January to April TKN_About value remained exactly the same. But then, after that, it started to grow up with few fluctuations in between. The maximum values were reached during the months of November and December TKN_Year. </t>
+          <t>The land TKN_UOM in TKN_Geo during TKN_Year has been showing a slight but constant ascendant trend. In particular, from January to April TKN_UOM value remained exactly the same. But then, after that, it started to grow up with few fluctuations in between. The maximum values were reached during the months of November and December TKN_Year. </t>
         </is>
       </c>
       <c r="Y37" t="n">
@@ -3808,12 +3808,12 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>This line chart depicts the house price index of houses in Canada in 2017.</t>
+          <t>This line chart depicts the house price index of houses in Canada in 2017. It is broken down into the months of the year. Values are ranging from 998 to 1033. The graph's overall trend is a continuous increase over the months. The lowest value was found for January (998), whereas the highest value was recorded for November and December (1033). </t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>This line chart depicts the house TKN_About of houses in TKN_Geo in TKN_Year.</t>
+          <t>This line chart depicts TKN_About TKN_UOM of houses in TKN_Geo in TKN_Year. It is broken down into the months of the year. Values are ranging from -3 to 103. The graph's overall trend is a continuous increase over the months. The lowest value was found for January (998), whereas the highest value was recorded for November and December (1033). </t>
         </is>
       </c>
       <c r="Y38" t="n">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Increase of house price index during 2017 months per months.</t>
+          <t>Increase of house price index during 2017 months per months. </t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Increase of house TKN_About during TKN_Year months per months.</t>
+          <t>Increase TKN_About TKN_UOM during TKN_Year months per months. </t>
         </is>
       </c>
       <c r="Y39" t="n">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>This is a line graph showing the 2017 house price index in Canada.</t>
+          <t>This is a line graph showing the 2017 house price index in Canada. There is a stable increase from the graph's bottom at under 1000 in January, and peaking at over 1030 in December. </t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>This is a line graph showing the TKN_Year house TKN_About in TKN_Geo.</t>
+          <t>This is a line graph showing the TKN_About TKN_UOM in TKN_Geo. There is a stable increase from the graph's bottom at under 3 in January, and peaking at over 94 in December. </t>
         </is>
       </c>
       <c r="Y40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>The graph shows the land TKN_About (index 347) in TKN_Geo in TKN_Year. Data entries are broken down into the months of the year. The graph's trend is a rise over the months. The value in January is 1006, the one for December is 103. The steepest incline can be found between March and May. </t>
+          <t>The graph shows TKN_About TKN_UOM (index 347) in TKN_Geo in TKN_Year. Data entries are broken down into the months of the year. The graph's trend is a rise over the months. The value in January is 1006, the one for December is 103. The steepest incline can be found between March and May. </t>
         </is>
       </c>
       <c r="Y41" t="n">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>The graph shows the land TKN_About development in TKN_Geo in TKN_Year. The starting point was just shy of 3 dollars in january but skyrocketed to over 79 dollars in May. A continouus, but a lot less steeper incline happend in between may and december, finishing at around 100 dollars in december. </t>
+          <t>The graph shows TKN_About TKN_UOM development in TKN_Geo in TKN_Year. The starting point was just shy of 3 dollars in january but skyrocketed to over 79 dollars in May. A continouus, but a lot less steeper incline happend in between may and december, finishing at around 100 dollars in december. </t>
         </is>
       </c>
       <c r="Y42" t="n">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>The graph shows how the land TKN_About in TKN_Geo rapidly increased during TKN_Year. In particular, it started in January around -12 and ended up in December with more than 94. The most significant increase was recorded between March and May. </t>
+          <t>The graph shows how TKN_About TKN_UOM in TKN_Geo rapidly increased during TKN_Year. In particular, it started in January around -12 and ended up in December with more than 94. The most significant increase was recorded between March and May. </t>
         </is>
       </c>
       <c r="Y43" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>The following chart provides information about the house TKN_About in TKN_Geo during TKN_Year. It's clearly possible to see how the TKN_About February. Over the next TKN_About value remained stable. It raised up again during the summer, reaching the same value of January during the month of June. From June TKN_About value maintained the same level. </t>
+          <t>The following chart provides information about TKN_About TKN_UOM in TKN_Geo during TKN_Year. It's clearly possible to see how TKN_UOM value significantly dropped TKN_About February. Over the next few months TKN_UOM value remained stable. It raised up again during the summer, reaching the same value of January during the month of June. From June to December TKN_UOM value maintained the same level. </t>
         </is>
       </c>
       <c r="Y44" t="n">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>The given graph shows the house TKN_About development in TKN_Geo in the year TKN_Year, devided by month. The TKN_About then decreased to 0 in february and staying constant until may, giving way to a rise back to 100 between may and july, again staying at 100 dollars till the end of the year. </t>
+          <t>The given graph shows TKN_About TKN_UOM development in TKN_Geo in the year TKN_Year, devided by month. The TKN_About then decreased to 0 in february and staying constant until may, giving way to a rise back to 100 between may and july, again staying at 100 dollars till the end of the year. </t>
         </is>
       </c>
       <c r="Y45" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>The graph shows the house TKN_About in canada in the year of TKN_Year. It is striking that the value only changes twice a year. It falls from TKN_About from May to July it rises back to the original amount of 100. For the rest of the year, the value remains constant. </t>
+          <t>The graph shows TKN_About TKN_UOM in canada in the year of TKN_Year. It is striking that the value only changes twice a year. It falls from TKN_About from May to July it rises back to the original amount of 100. For the rest of the year, the value remains constant. </t>
         </is>
       </c>
       <c r="Y46" t="n">
@@ -4708,12 +4708,12 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>The house price index in Canada during 2018 presents a quite ambiguous trend.</t>
+          <t>The house price index in Canada during 2018 presents a quite ambiguous trend. Firstly, during the first few months, it slowly decrease. But then, from May to July, it recorded a considerable growth. During the last few months of the year the house price index mainted the same level. </t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>The house TKN_About in TKN_Geo during TKN_Year presents a quite ambiguous trend.</t>
+          <t>The house TKN_UOM in TKN_Geo during TKN_Year presents a quite ambiguous trend. Firstly, during the first few months, it slowly decrease. But then, from May to July, it recorded a considerable growth. During the last few months of the year TKN_About TKN_UOM mainted the same level. </t>
         </is>
       </c>
       <c r="Y48" t="n">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>The land TKN_About for TKN_Geo during the year of TKN_Year increased from April to December. The TKN_About plateaued during the months of March through April, June through August, September through October and November through December. </t>
+          <t>The land TKN_UOM for TKN_Geo during the year of TKN_Year increased from April to December. The TKN_UOM plateaued during the months of March through April, June through August, September through October and November through December. </t>
         </is>
       </c>
       <c r="Y49" t="n">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Land Price Index in TKN_Geo in the year of TKN_Year. The graphic shows the course of TKN_About Price Index in TKN_Geo over the year TKN_Year. It is noticeable that TKN_About initially remains constant for the beginning of the year and then rises sharply towards the end of the year. For the mounths of november and december the maximum value is reached with 100. </t>
+          <t>Land TKN_UOM in TKN_Geo in the year of TKN_Year. The graphic shows the course of TKN_About TKN_UOM in TKN_Geo over the year TKN_Year. It is noticeable that TKN_UOM initially remains constant for the beginning of the year and then rises sharply towards the end of the year. For the mounths of november and december the maximum value is reached with 100. </t>
         </is>
       </c>
       <c r="Y50" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>This figure represents the land TKN_About in TKN_Geo in TKN_Year. Overall the TKN_About increases throughout the year. During January a value of 233325 can be observed, after which it rises up to 25. -25800 during February. It falls back to 233325 during March and April. During the following -25875 months there is a steady increase, after which the land TKN_About remains unchanged at 233825 throughout June until August. Also, it remains steady during September and October at 234075. Moreover, the land TKN_About stays constant at the peak value of the year during November and December, reaching up to 234325. </t>
+          <t>This figure represents TKN_About TKN_UOM in TKN_Geo in TKN_Year. Overall the TKN_UOM increases throughout the year. During January a value of 233325 can be observed, after which it rises up to 25. -25800 during February. It falls back to 233325 during March and April. During the following -25875 months there is a steady increase, after which TKN_About TKN_UOM remains unchanged at 233825 throughout June until August. Also, it remains steady during September and October at 234075. Moreover, TKN_About TKN_UOM stays constant at the peak value of the year during November and December, reaching up to 234325. </t>
         </is>
       </c>
       <c r="Y51" t="n">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>In the following graph is described the monthly supply TKN_About in tonnes about TKN_Geo during TKN_Year. The minimum value has been registered during TKN_About January and maximum during July. Furthermore, it's possible to see how the supply TKN_About is generally higher during spring and summer. </t>
+          <t>In the following graph is described the monthly TKN_About in TKN_UOM about TKN_Geo during TKN_Year. The minimum value has been registered during TKN_About January and maximum during July. Furthermore, it's possible to see how the TKN_About is generally higher during spring and summer. </t>
         </is>
       </c>
       <c r="Y52" t="n">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>It shows the data about supply TKN_About in TKN_Geo during TKN_Year. The displayed values are in tones. It's possible to see how the value rapidly increase from January over, reaching its peaks during TKN_About July with approximately 101 tonnes. After that, the values decrease until September and then rise up again during last TKN_About the year. </t>
+          <t>It shows the data about TKN_About in TKN_Geo during TKN_Year. The displayed values are in tones. It's possible to see how the value rapidly increase from January over, reaching its peaks during TKN_About July with approximately 101 tonnes. After that, the values decrease until September and then rise up again during last TKN_About the year. </t>
         </is>
       </c>
       <c r="Y53" t="n">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>This graph represents the Canadian supply TKN_About (in tonnes) during TKN_Year. The lowest value can be observed in January with 1 tonnes. Supply increases during February, remains almost unchanged throughout March and sharply increases during the following months until it reaches its peak in July with 101 tonnes. There is a sharp decline in supply TKN_About from July until September. The supply remains stable during October and experiences a small rise during November. </t>
+          <t>This graph represents the Canadian TKN_About (in tonnes) during TKN_Year. The lowest value can be observed in January with 1 tonnes. Supply increases during February, remains almost unchanged throughout March and sharply increases during the following months until it reaches its peak in July with 101 tonnes. There is a sharp decline in TKN_About from July until September. The supply remains stable during October and experiences a small rise during November. </t>
         </is>
       </c>
       <c r="Y54" t="n">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>This chart represents the supply TKN_About in tonnes of TKN_Geo in TKN_Year. The minimum supply can be observed during January with -1 tonnes. From then onwards the supply steadily increases until May with 92 tonnes. From May until July the supply is held about constant. A slow, but constant decrease is observed from July until December. </t>
+          <t>This chart represents the TKN_About in TKN_UOM of TKN_Geo in TKN_Year. The minimum supply can be observed during January with -1 tonnes. From then TKN_About steadily increases until May with 92 tonnes. From May until TKN_About is held about constant. A slow, but constant decrease is observed from July until December. </t>
         </is>
       </c>
       <c r="Y55" t="n">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>From the graph is clear that the supply TKN_About had a significant jump from the month of February to April. The values in the graph are described using tonnes TKN_About measurement. From July over the values started to slowly decrease until TKN_About the year. </t>
+          <t>From the graph is clear that the TKN_About had a significant jump from the month of February to April. The values in the graph are described using TKN_UOM TKN_About measurement. From July over the values started to slowly decrease until TKN_About the year. </t>
         </is>
       </c>
       <c r="Y56" t="n">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>The data presented in the graph shows the supply TKN_About in TKN_Geo over the year of TKN_Year in tonnes. The lowest supply TKN_About can be observed in January. The supply increases constantly over the next months and reaches its highest value in June, after which it decreases with a similar rate and reaches a local minimum in September. </t>
+          <t>The data presented in the graph shows the TKN_About in TKN_Geo over the year of TKN_Year in tonnes. The lowest TKN_About can be observed in January. The supply increases constantly over the next months and reaches its highest value in June, after which it decreases with a similar rate and reaches a local minimum in September. </t>
         </is>
       </c>
       <c r="Y58" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the supply TKN_About in TKN_Geo during TKN_Year rapidly increased from January over. In particular, it reached its peak during TKN_About June TKN_Year. After that, it started to decline until September. The last TKN_About the year it remained quite stable. </t>
+          <t>It's clearly possible to see how the TKN_About in TKN_Geo during TKN_Year rapidly increased from January over. In particular, it reached its peak during TKN_About June TKN_Year. After that, it started to decline until September. The last TKN_About the year it remained quite stable. </t>
         </is>
       </c>
       <c r="Y59" t="n">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>It shows the supply TKN_About in TKN_Geo during TKN_Year. The values are described using TKN_UOM as UOM. It rapidly increase from January for the TKN_About the year. It reach its maximum value during TKN_About June. After that, it starts to decline til September. The supply TKN_About fluctuated over the last few months of TKN_Year. </t>
+          <t>It shows the TKN_About in TKN_Geo during TKN_Year. The values are described using TKN_UOM as UOM. It rapidly increase from January for the TKN_About the year. It reach its maximum value during TKN_About June. After that, it starts to decline til September. The TKN_About fluctuated over the last few months of TKN_Year. </t>
         </is>
       </c>
       <c r="Y60" t="n">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>The following line chart is about the production TKN_About in TKN_Geo during TKN_Year. The values are reported in tonnes. It shows how the production is actually falling down from January to August, when it reaches its minimum. From September to December the values are slowly rising up. </t>
+          <t>The following line chart is about the TKN_About in TKN_Geo during TKN_Year. The values are reported in tonnes. It shows TKN_About is actually falling down from January to August, when it reaches its minimum. From September to December the values are slowly rising up. </t>
         </is>
       </c>
       <c r="Y61" t="n">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Production of creamery butter in Canada has been rapidly decreasing over from January until August 2016.</t>
+          <t>Production of creamery butter in Canada has been rapidly decreasing over from January until August 2016. Even that, couple of peaks have been recorded during that period, in particular April and July. During the last few months of year, the production started to considerably grow again. The minimum value over the year was registered in August 2016. </t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Production of creamery butter in TKN_Geo has been rapidly decreasing over from January until August TKN_Year.</t>
+          <t>Production of creamery butter in TKN_Geo has been rapidly decreasing over from January until August TKN_Year. Even TKN_About peaks have been recorded during that period, in particular April and July. During the last few months TKN_About started to considerably grow again. The minimum value over the year was registered in August TKN_Year. </t>
         </is>
       </c>
       <c r="Y62" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Production of creamery butter varies a lot throughout the year. Being mostly stable from February until April with approximately -175 TKN_About butter, a drop is observed from April until June. The production starts oscillating between June and November, whereas production varies between 12 to 25 tonnes. A sharp increase TKN_About production is taking place from November onwards, reaching its maximum in January with almost 105 tonnes. </t>
+          <t>Production of creamery butter varies a lot throughout the year. Being mostly stable from February until April with approximately -175 TKN_About butter, a drop is observed from April until June. The production starts oscillating between June and November, whereas production varies between 12 to 25 tonnes. A sharp increase in TKN_About is taking place from November onwards, reaching its maximum in January with almost 105 tonnes. </t>
         </is>
       </c>
       <c r="Y63" t="n">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>The graph showes production TKN_About in tonnes in the year TKN_Year. The highest production is in January with around 104 tonnes. It decreases in February and stay nearly constant till April. Afterwards it drops constanously and rapidly till june. It increase agin in july till it drop again in August to the minimal TKN_About butter. Till TKN_About the year it increase beside a small drop in November. </t>
+          <t>The graph showes TKN_About in TKN_UOM in the year TKN_Year. The highest production is in January with around 104 tonnes. It decreases in February and stay nearly constant till April. Afterwards it drops constanously and rapidly till june. It increase agin in july till it drop again in August to the minimal TKN_About butter. Till TKN_About the year it increase beside a small drop in November. </t>
         </is>
       </c>
       <c r="Y64" t="n">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>The production TKN_About reached its highest point in January of TKN_Year. Thereafter, production declined in February and then recovered in May. In the months following production steadily decreased until September. Thereafter, the graph fluctuated from October to December. </t>
+          <t>The TKN_About reached its highest point in January of TKN_Year. Thereafter, production declined in February and then recovered in May. In the TKN_About steadily decreased until September. Thereafter, the graph fluctuated from October to December. </t>
         </is>
       </c>
       <c r="Y66" t="n">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>A line chart about the TKN_About per tonnes in TKN_Geo in the year TKN_Year. The minimum value is reached in September and the maximum in January. </t>
+          <t>A line chart about the TKN_About per TKN_UOM in TKN_Geo in the year TKN_Year. The minimum value is reached in September and the maximum in January. </t>
         </is>
       </c>
       <c r="Y67" t="n">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo reported a not homogeneous trend over TKN_Year. The maximum value was recorded during January. After that, several oscillations have been recorded over the year. In particular, a big drop was recorded between TKN_About April and June. The value keep fluactuating over the last TKN_About the year. </t>
+          <t>The TKN_About in TKN_Geo reported a not homogeneous trend over TKN_Year. The maximum value was recorded during January. After that, several oscillations have been recorded over the year. In particular, a big drop was recorded between TKN_About April and June. The value keep fluactuating over the last TKN_About the year. </t>
         </is>
       </c>
       <c r="Y68" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>The graph shows the import TKN_About (month vs. tonnes) in TKN_Geo in TKN_Year. First the rapid growth is observed in January, followed by a sharp decline in February. The import then raises slightly in March, remaining constant from April to June. </t>
+          <t>The graph shows the TKN_About (month vs. tonnes) in TKN_Geo in TKN_Year. First the rapid growth is observed in January, followed by a sharp decline in February. The import then raises slightly in March, remaining constant from April to June. </t>
         </is>
       </c>
       <c r="Y70" t="n">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>It's possible to see how the import value TKN_About in TKN_Geo presented several fluctuations over the year. In particular during the first few months different peaks and dips have been recorded. Then the import value rapidly increased from August to November. It reached its maximum value during TKN_About November. The minimum value was in January TKN_Year. </t>
+          <t>It's possible to see how the TKN_About in TKN_Geo presented several fluctuations over the year. In particular during the first few months different peaks and dips have been recorded. Then the import value rapidly increased from August to November. It reached its maximum value during TKN_About November. The minimum value was in January TKN_Year. </t>
         </is>
       </c>
       <c r="Y71" t="n">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>The graph describes the import TKN_About (in tonnes) in TKN_Geo during TKN_Year. As can be seen from the graph, the value reports two significant peaks during TKN_About March and June. The minimum value has been recorded during TKN_About September. It's also possible to see how the values during January and December do not differ so much from each other. </t>
+          <t>The graph describes the TKN_About (in tonnes) in TKN_Geo during TKN_Year. As can be seen from the graph, the value reports two significant peaks during TKN_About March and June. The minimum value has been recorded during TKN_About September. It's also possible to see how the values during January and December do not differ so much from each other. </t>
         </is>
       </c>
       <c r="Y72" t="n">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>This graph illustrates the Canadian import TKN_About in TKN_Year. The unit used is tonnes. Import reaches its maximum of over 97 tonnes during June and its second highes import during the month of March with approximately 79. After June the import drastically decreases until reaching TKN_About approximately 3 in September. From TKN_About September until February the import oscillates between approximately 3 and 34. </t>
+          <t>This graph illustrates the Canadian TKN_About in TKN_Year. The unit used is tonnes. Import reaches its maximum of over 97 TKN_UOM during June and its second highes import during the month of March with approximately 79. After TKN_About drastically decreases until reaching a minimum of approximately 3 in September. From the months TKN_About oscillates between approximately 3 and 34. </t>
         </is>
       </c>
       <c r="Y73" t="n">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Creamery butter imports into TKN_Geo in TKN_Year. Imports were higher overall during the TKN_About the year; however, the most noticeable feature is the sharp rise to a maximum value of over 92 tonnes in June, followed by an equally sharp drop to a minimum value of less than 7 tonnes in July. </t>
+          <t>Creamery butter imports into TKN_Geo in TKN_Year. Imports were higher overall during the TKN_About the year; however, the most noticeable feature is the sharp rise to a maximum value of over 92 TKN_UOM in June, followed by an equally sharp drop to a minimum value of less than 7 TKN_UOM in July. </t>
         </is>
       </c>
       <c r="Y75" t="n">
@@ -7228,12 +7228,12 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>The amount of import creamery butter in Canada during 2018 presented strong variations in its values over the year.</t>
+          <t>The amount of import creamery butter in Canada during 2018 presented strong variations in its values over the year. It's possible to identify several peaks, dips and curves. During June and July has been recorded a massive drop of the import value. At the same time, the most significant peak was registered during June. The most considerable dip was reported during July. </t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>The amount TKN_About in TKN_Geo during TKN_Year presented strong variations in its values over the year.</t>
+          <t>The amount TKN_About in TKN_Geo during TKN_Year presented strong variations in its values over the year. It's possible to identify several peaks, dips and curves. During June and July has been recorded a massive drop TKN_About value. At the same time, the most significant peak was registered during June. The most considerable dip was reported during July. </t>
         </is>
       </c>
       <c r="Y76" t="n">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>The following line chart provides useful information about the production TKN_About in TKN_Geo during TKN_Year. The production value is quantified TKN_About units producted. During the first few months TKN_About production rapidly increased, reaching the maximum value over TKN_Year in March. After that, over the next few months, the production TKN_About slightly decreased until the end of the year. </t>
+          <t>The following line chart provides useful information about the TKN_About in TKN_Geo during TKN_Year. The TKN_About TKN_UOM producted. During the first few months TKN_About rapidly increased, reaching the maximum value over TKN_Year in March. After that, over the next few months, the TKN_About slightly decreased until the end of the year. </t>
         </is>
       </c>
       <c r="Y77" t="n">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>This graph represents the production TKN_About in TKN_Geo during TKN_Year. Production starts very low in January and undergoes a sharp increase until it reaches its peak TKN_About in April. The following months production decreases, being almost steady at 69 from July until September. Production gradually decreases until December. </t>
+          <t>This graph represents the TKN_About in TKN_Geo during TKN_Year. Production starts very low in January and undergoes a sharp increase until it reaches its peak TKN_About in April. The following months production decreases, being almost steady at 69 from July until September. Production gradually decreases until December. </t>
         </is>
       </c>
       <c r="Y78" t="n">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>As it's shown in the graph, the production TKN_About in TKN_Geo during TKN_Year rapidly increased fom January to April. After that, it slowly slide down from April until TKN_About year. The maximum number TKN_About in TKN_Geo during TKN_Year was in April. </t>
+          <t>As it's shown in the graph, the TKN_About in TKN_Geo during TKN_Year rapidly increased fom January to April. After that, it slowly slide down from April until TKN_About year. The maximum number TKN_About in TKN_Geo during TKN_Year was in April. </t>
         </is>
       </c>
       <c r="Y79" t="n">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Production of vehicles in TKN_Geo in TKN_Year. The graph indicates much lower production during the winter months, with January, February and December totals more than -77 units lower than any point during TKN_About year. While the total peaked in may at 100 units, it was consistently above 62 units from March until September. </t>
+          <t>Production of vehicles in TKN_Geo in TKN_Year. The graph indicates much lower production during the winter months, with January, February and December totals more than -77 TKN_UOM lower than any point during TKN_About year. While the total peaked in may at 100 TKN_UOM, it was consistently above 62 TKN_UOM from March until September. </t>
         </is>
       </c>
       <c r="Y80" t="n">
@@ -7678,12 +7678,12 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>The production of new motor vehicle in Canada in 2017 climbed from 120000 to 220000 from Jan to May.</t>
+          <t>The production of new motor vehicle in Canada in 2017 climbed from 120000 to 220000 from Jan to May. Then it dropped until Jul, was stable until Sep. with a final further decline to 130000 at the end of the year. </t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>The TKN_About vehicle in TKN_Geo in TKN_Year climbed from 7 to 100 from Jan to May.</t>
+          <t>The TKN_About vehicle in TKN_Geo in TKN_Year climbed from 7 to 100 from Jan to May. Then it dropped until Jul, was stable until Sep. with a final further decline to 16 at TKN_About year. </t>
         </is>
       </c>
       <c r="Y81" t="n">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>The following line chart is about the production TKN_About (units) in TKN_Geo during TKN_Year. It's possible to see how the highest value was during May, when almost TKN_About have been producted. Furthermore, it's also clear that January and December are the months with TKN_About producted over TKN_Year in TKN_Geo. </t>
+          <t>The following line chart is about the TKN_About (units) in TKN_Geo during TKN_Year. It's possible to see how the highest value was during May, when almost TKN_About have been producted. Furthermore, it's also clear that January and December are the months with TKN_About producted over TKN_Year in TKN_Geo. </t>
         </is>
       </c>
       <c r="Y82" t="n">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>A line chart about TKN_About per units in TKN_Geo in the year TKN_Year. The value grows until May and then decreases. </t>
+          <t>A line chart about TKN_About per TKN_UOM in TKN_Geo in the year TKN_Year. The value grows until May and then decreases. </t>
         </is>
       </c>
       <c r="Y83" t="n">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo in TKN_Year rose sharply until May, from 2 to 100 units. Then it started decreasing, reaching the same January level of 2 in December, at TKN_About year. </t>
+          <t>The TKN_About in TKN_Geo in TKN_Year rose sharply until May, from 2 to 100 units. Then it started decreasing, reaching the same January level of 2 in December, at TKN_About year. </t>
         </is>
       </c>
       <c r="Y84" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>A Graph showing the production TKN_About by TKN_Geo in TKN_Year. As you can see the production had a big climbing in Q1 TKN_Year. It stayed stable in Q2 and Q3, while fell down in Q4. it is a phisiologic trend TKN_About market. </t>
+          <t>A Graph showing the TKN_About by TKN_Geo in TKN_Year. As you TKN_About had a big climbing in Q1 TKN_Year. It stayed stable in Q2 and Q3, while fell down in Q4. it is a phisiologic trend TKN_About market. </t>
         </is>
       </c>
       <c r="Y86" t="n">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>The chart represents the production TKN_About (month vs. profit in dollars) in TKN_Year in TKN_Geo. The profit goes up rapidly in the first four months, then oscillates tending downward during May-September and finally plummets during September-December. </t>
+          <t>The chart represents the TKN_About (month vs. profit in dollars) in TKN_Year in TKN_Geo. The profit goes up rapidly in the first four months, then oscillates tending downward during May-September and finally plummets during September-December. </t>
         </is>
       </c>
       <c r="Y87" t="n">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Production of new motor vehicles in TKN_Geo TKN_Year. The graphic shows the production TKN_About ($) in TKN_Geo over the year TKN_Year. iT is noticeable that in the spring and summer months significantly more money is spent on TKN_About vehicel as in the winter. </t>
+          <t>Production of new motor vehicles in TKN_Geo TKN_Year. The graphic shows the TKN_About ($) in TKN_Geo over the year TKN_Year. iT is noticeable that in the spring and summer months significantly more money is spent on TKN_About vehicel as in the winter. </t>
         </is>
       </c>
       <c r="Y88" t="n">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>This line chart represents the Canadian production TKN_About in dollars in TKN_Year. The year starts with a TKN_About -1 dollars in January and gradually increases until reaching its maximum in May with approximately 98. From May onwards the production starts fluctuating, having a low in July, but also an increased production in September. In the following three months a constant drop is observed, TKN_About 24 dollars in December. </t>
+          <t>This line chart represents the Canadian TKN_About in TKN_UOM in TKN_Year. The year starts with a TKN_About -1 TKN_UOM in January and gradually increases until reaching its maximum in May with approximately 98. From TKN_About starts fluctuating, having a low in July, but also an increased production in September. In the following three months a constant drop is observed, TKN_About 24 TKN_UOM in December. </t>
         </is>
       </c>
       <c r="Y89" t="n">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Production of new motor vehicles in TKN_Geo during TKN_Year showed a massive climb from February to March. The production value kept raising up. it reached its maximum value TKN_About May. After that, the production TKN_About slightly started to decline, reaching a dip during the month of December TKN_Year. </t>
+          <t>Production of new motor vehicles in TKN_Geo during TKN_Year showed a massive climb from February to March. The production value kept raising up. it reached its maximum value TKN_About May. After that, the TKN_About slightly started to decline, reaching a dip during the month of December TKN_Year. </t>
         </is>
       </c>
       <c r="Y90" t="n">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in dollars in TKN_Geo during TKN_Year. In general the production recorded its highes values during the spring and summer months, reaching a peak during May -118. The TKN_About the values during TKN_Year is between the months of February and March. </t>
+          <t>The graph shows the TKN_About in TKN_UOM in TKN_Geo during TKN_Year. In general the production recorded its highes values during the spring and summer months, reaching a peak during May -118. The TKN_About the values during TKN_Year is between the months of February and March. </t>
         </is>
       </c>
       <c r="Y91" t="n">
@@ -8668,12 +8668,12 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>The production of new motor vehicles in Canada of 2018 is shown in this figure.</t>
+          <t>The production of new motor vehicles in Canada of 2018 is shown in this figure. The unit given is dollars. Production shows its lowest value in January at 05. Following this production experiences a sharp increase, until reaching its maximum of approximately 093 in May. Production gradually decreases from May until July, plateauing from July until September around 075. There is a steady decline from September until December, reaching a value of around 054. </t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo of TKN_Year is shown in this figure.</t>
+          <t>The TKN_About in TKN_Geo of TKN_Year is shown in this figure. The unit given is dollars. Production shows its lowest value in January at 0-118. Following this production experiences a sharp increase, until reaching its maximum of approximately 0-118 in May. Production gradually decreases from May until July, plateauing from July until September around 0-118. There is a steady decline from September until December, TKN_About around 0-118. </t>
         </is>
       </c>
       <c r="Y92" t="n">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>The following line chart is decribing the trend of the total TKN_About in TKN_Geo during TKN_Year. The values are described using the TKN_About (FPPI). It can be seen from the graph that the values are frequently fluctuating over the year, showing several peaks and dips. The most significant peak was recorded during the month of July TKN_Year. The lowest values have been recorded during the months of September and December. </t>
+          <t>The following line chart is decribing the trend of TKN_UOM in TKN_Geo during TKN_Year. The values are described using TKN_UOM (FPPI). It can be seen from the graph that the values are frequently fluctuating over the year, showing several peaks and dips. The most significant peak was recorded during the month of July TKN_Year. The lowest values have been recorded during the months of September and December. </t>
         </is>
       </c>
       <c r="Y93" t="n">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>This chart shows how the Canadian total TKN_About varies by month throughout TKN_Year. We see a distinctive season pattern. Production starts at a middling level in the first three months of the year, before a rapid increase from April to July, where it reaches a peak. </t>
+          <t>This chart shows how the TKN_UOM varies by month throughout TKN_Year. We see a distinctive season pattern. Production starts at a middling level in the first three months of the year, before a rapid increase from April to July, where it reaches a peak. </t>
         </is>
       </c>
       <c r="Y94" t="n">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>This graph illustrates values about the total TKN_About in TKN_Geo during TKN_Year. Those values are described using the TKN_About (FPPI). It's clearly possible to see how the maximum TKN_About are registered during the summer months. In particular, TKN_About value was during July TKN_Year. At the same time, the lowest one was in December. </t>
+          <t>This graph illustrates values about TKN_UOM in TKN_Geo during TKN_Year. Those values are described using TKN_UOM (FPPI). It's clearly possible to see how the maximum TKN_About are registered during the summer months. In particular, TKN_About value was during July TKN_Year. At the same time, the lowest one was in December. </t>
         </is>
       </c>
       <c r="Y95" t="n">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>The line chart is describing the values about TKN_About grains in TKN_Geo during TKN_Year. The production amout is described using the farm product price index (FPPI). The minimum recorded value is during February. The maximum recorded value is during August. Furthermore, there are several fluctuations over the year. </t>
+          <t>The line chart is describing the values about TKN_About in TKN_Geo during TKN_Year. The production amout is described using TKN_UOM (FPPI). The minimum recorded value is during February. The maximum recorded value is during August. Furthermore, there are several fluctuations over the year. </t>
         </is>
       </c>
       <c r="Y96" t="n">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Graph elucidates the grain production in the year TKN_Year. Production experienced a general increase over the year, with a sharp spike in August and dips in the months of February, July and November. </t>
+          <t>Graph elucidates the TKN_About in the year TKN_Year. Production experienced a general increase over the year, with a sharp spike in August and dips in the months of February, July and November. </t>
         </is>
       </c>
       <c r="Y97" t="n">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>The TKN_About grains in TKN_Geo during TKN_Year reported several fluctations. Even that, it shows a significant peak during the TKN_About August. The minimum value has been registered during the TKN_About February. </t>
+          <t>The TKN_About in TKN_Geo during TKN_Year reported several fluctations. Even that, it shows a significant peak during the TKN_About August. The minimum value has been registered during the TKN_About February. </t>
         </is>
       </c>
       <c r="Y98" t="n">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>The shown line chart provides information about the production TKN_About in TKN_Geo during TKN_Year. The values are described using the farm product price index (FPPI). It's clearly possible to see two significant peaks during TKN_About March and August. Then the TKN_About production remain quite stable during the year. </t>
+          <t>The shown line chart provides information about the TKN_About in TKN_Geo during TKN_Year. The values are described using TKN_UOM (FPPI). It's clearly possible to see two significant peaks during TKN_About March and August. Then the overall TKN_About remain quite stable during the year. </t>
         </is>
       </c>
       <c r="Y99" t="n">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>The values about production TKN_About in TKN_Geo during TKN_Year show a quite interesting trend. The production remained stable TKN_About the year. But two TKN_About production have been recorded, one in March and one in August. Even that, the most significant peak was definetely in August TKN_Year. The month with less production was December. </t>
+          <t>The values about TKN_About in TKN_Geo during TKN_Year show a quite interesting trend. The TKN_About the year. But two big TKN_About have been recorded, one in March and one in August. Even that, the most significant peak was definetely in August TKN_Year. The month TKN_About was December. </t>
         </is>
       </c>
       <c r="Y101" t="n">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in TKN_Geo for the year fo TKN_Year. The graph shows production steadily increasing till October and then declines in the months after. It is important to note that production at TKN_About the year in December is much higher than it was beginning the year in January. </t>
+          <t>The graph shows the TKN_About in TKN_Geo for the year fo TKN_Year. The TKN_About steadily increasing till October and then declines in the months after. It is important to note that TKN_About the year in December is much higher than it was beginning the year in January. </t>
         </is>
       </c>
       <c r="Y102" t="n">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>This line graph displays the production TKN_About in TKN_Geo for TKN_Year using the farm product price index. A small decrease from January to February is followed by a steady increase until October, where the value again decreases for November and December. </t>
+          <t>This line graph displays the TKN_About in TKN_Geo for TKN_Year TKN_UOM index. A small decrease from January to February is followed by a steady increase until October, where the value again decreases for November and December. </t>
         </is>
       </c>
       <c r="Y103" t="n">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo increased constantly in TKN_Year (from 11 to 96 FPPI), with the exception of the October-December period when it decreased to 74. </t>
+          <t>The TKN_About in TKN_Geo increased constantly in TKN_Year (from 11 to 96 FPPI), with the exception of the October-December period when it decreased to 74. </t>
         </is>
       </c>
       <c r="Y104" t="n">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>Production of fresh vegetables for TKN_Year in whole TKN_Geo, represented by the farm product price index. It can be seen, that the production rises in the months from february until october and then drops. </t>
+          <t>Production of fresh vegetables for TKN_Year in whole TKN_Geo, represented TKN_UOM index. It can be seen, TKN_About rises in the months from february until october and then drops. </t>
         </is>
       </c>
       <c r="Y105" t="n">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>The line chart about fresh potato production in TKN_Geo, TKN_Year shows that there was a peak in the production during TKN_About June, July and August. To drop during TKN_About October and then raise again. At TKN_About the year the production was growing until this boost in Summer. </t>
+          <t>The line chart about TKN_About in TKN_Geo, TKN_Year shows that there was a peak in the production during the period of June, July and August. To drop during TKN_About October and then raise again. At the beginning TKN_About was growing until this boost in Summer. </t>
         </is>
       </c>
       <c r="Y106" t="n">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>This line graph displays the production TKN_About in TKN_Geo for TKN_Year using the farm product price index. A slow but steady increase is observed from January to June, where a steep increase is seen from June to August. A steep decrease follows from August to October, where the value again rises steadily from October to December. </t>
+          <t>This line graph displays the TKN_About in TKN_Geo for TKN_Year TKN_UOM index. A slow but steady increase is observed from January to June, where a steep increase is seen from June to August. A steep decrease follows from August to October, where the value again rises steadily from October to December. </t>
         </is>
       </c>
       <c r="Y107" t="n">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>It's clearly possible to see from the graph that the production TKN_About in TKN_Geo during TKN_Year reached its maximum values during the summer months. In particular, the most TKN_About the values was registered during August TKN_Year. Despite of that, during the rest of the year the production value remained quite stable with few and not significant fluctuations. </t>
+          <t>It's clearly possible to see from the graph that the TKN_About in TKN_Geo during TKN_Year reached its maximum values during the summer months. In particular, the most TKN_About the values was registered during August TKN_Year. Despite of that, during the rest TKN_About value remained quite stable with few and not significant fluctuations. </t>
         </is>
       </c>
       <c r="Y108" t="n">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>The following line chart shows the farm product price index (FPPI) about the total TKN_About in TKN_Geo during TKN_Year. The values are significantly fluctuating over the year, TKN_About falls. The highest values of the indexes have been recorded TKN_About October. The lower values of the indexes have been recorded TKN_About December. </t>
+          <t>The following line chart shows the TKN_UOM about the TKN_About in TKN_Geo during TKN_Year. The values are significantly fluctuating over the year, TKN_About falls. The highest values of the indexes have been recorded TKN_About October. The lower values of the indexes have been recorded TKN_About December. </t>
         </is>
       </c>
       <c r="Y109" t="n">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>The graph shows the TKN_About value in TKN_Geo during TKN_Year. The values are described using the farm product price index (FPPI). The products index shown several fluctuations. In particular, it's clearly possible to TKN_About dips. In February, July and October the value reached its maximum values. During April and September the value reached its minimum values. </t>
+          <t>The graph shows the TKN_About value in TKN_Geo during TKN_Year. The values are described using TKN_UOM (FPPI). The products index shown several fluctuations. In particular, it's clearly possible to TKN_About dips. In February, July and October the value reached its maximum values. During April and September the value reached its minimum values. </t>
         </is>
       </c>
       <c r="Y110" t="n">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>Total Canadian livestock and animal products in TKN_Year are shown in this graph. The unit given is the farm product price index (FPPI). During January TKN_About the second highes value of the year can be observed in February at approximately 76. There is a sharp decline from February onwards, reaching a low of 1 in April. During the following months there is a steep rise, reaching the maximum of 99 in July. Again, a huge decrease follows until reaching the lowest value in September, which is followed by a significant rise for October. Following this, a rapid drop can be observed until December. </t>
+          <t>Total Canadian livestock and animal products in TKN_Year are shown in this graph. The unit given is TKN_UOM (FPPI). During January TKN_About the second highes value of the year can be observed in February at approximately 76. There is a sharp decline from February onwards, reaching a low of 1 in April. During the following months there is a steep rise, reaching the maximum of 99 in July. Again, a huge decrease follows until reaching the lowest value in September, which is followed by a significant rise for October. Following this, a rapid drop can be observed until December. </t>
         </is>
       </c>
       <c r="Y111" t="n">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>The graph describes the production TKN_About in TKN_Geo during TKN_Year. The production value is described using the farm product price index (FPPI). As it can be seen from the graph, the production rapidly increased from January until August. After that, from August to December the production slightly decreased. The maximum value has been registered in August and the minimum one during February. </t>
+          <t>The graph describes the TKN_About in TKN_Geo during TKN_Year. The production value is described using TKN_UOM (FPPI). As it can be seen TKN_About rapidly increased from January until August. After that, from TKN_About slightly decreased. The maximum value has been registered in August and the minimum one during February. </t>
         </is>
       </c>
       <c r="Y113" t="n">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>A graph showing the FPPPI for the production of poultry in TKN_Geo TKN_About year TKN_Year. The FPPI has risen steadily until August and then dropped slowly. </t>
+          <t>A graph showing the TKN_About poultry in TKN_Geo over the course of the year TKN_Year. The FPPI has risen steadily until August and then dropped slowly. </t>
         </is>
       </c>
       <c r="Y114" t="n">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>This line chart reflects the production TKN_About in TKN_Geo during TKN_Year. From January until March the production remains unaltered at approximately 4. From March until July TKN_About up to 40 can be observed. There is TKN_About production between July and August, reaching its highest production which will last until December. </t>
+          <t>This line chart reflects the TKN_About in TKN_Geo during TKN_Year. From January TKN_About remains unaltered at approximately 4. From March until July TKN_About up to 40 can be observed. There is a TKN_About between July and August, reaching its highest production which will last until December. </t>
         </is>
       </c>
       <c r="Y115" t="n">
@@ -10828,12 +10828,12 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>As it's possible to see, the following graph is about the production of eggs in shell in Canada during 2018.</t>
+          <t>As it's possible to see, the following graph is about the production of eggs in shell in Canada during 2018. The values are reported using the farm product price index (FPPI). The production slightly increase over the first half of the year, so from January until July. After that, it has been recorded a significant jump of the values between July and August. During the last few months of the year it remained steady. </t>
         </is>
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>As it's possible to see, the following graph is about the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>As it's possible to see, the following graph is about the TKN_About in TKN_Geo during TKN_Year. The values are reported using TKN_UOM (FPPI). The TKN_About the year, so from January until July. After that, it has been recorded TKN_About the values between July and August. During the TKN_About the year it remained steady. </t>
         </is>
       </c>
       <c r="Y116" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>As can be seen from the graph the production TKN_About in TKN_Geo during TKN_Year had a significant growth during the second half of the year. It decreased from January to June, when it has been recorded the TKN_About the year. But then it started to rapidly increase reaching its maximum value during November 742. </t>
+          <t>As can be seen from the graph the TKN_About in TKN_Geo during TKN_Year had a significant growth during the second half of the year. It decreased from January to June, when it has been recorded the TKN_About the year. But then it started to rapidly increase reaching its maximum value during November 742. </t>
         </is>
       </c>
       <c r="Y117" t="n">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>As is shown form the graph, the production TKN_About steadily increases in winter time, and steadily decreases in summer. The graph shows that production is highest in November and lowest in June. </t>
+          <t>As is shown form the graph, the TKN_About steadily increases in winter time, and steadily decreases in summer. The graph TKN_About is highest in November and lowest in June. </t>
         </is>
       </c>
       <c r="Y118" t="n">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo has been substantially growing over TKN_Year. In particular, during the first TKN_About the year the values have been slightly decreasing. But then from June over it rapidly increased, reaching it peaks on November TKN_Year. The minimum production value during TKN_Year has been reported during June. </t>
+          <t>The TKN_About in TKN_Geo has been substantially growing over TKN_Year. In particular, during the first TKN_About the year the values have been slightly decreasing. But then from June over it rapidly increased, reaching it peaks on November TKN_Year. The minimum production value during TKN_Year has been reported during June. </t>
         </is>
       </c>
       <c r="Y119" t="n">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>This graph depicts the production TKN_About in TKN_Geo during TKN_Year. The given unit is the farm product price index (FPPI). The graph represents a parable throughout the year. It starts at 34 during January, after which a steady decline can be observed, reaching the lowest production value in June at 0. During the following months production rapidly increases until the maximum is reached in November at approximately 100. There is a small decrease in December. </t>
+          <t>This graph depicts the TKN_About in TKN_Geo during TKN_Year. The given unit is TKN_UOM (FPPI). The graph represents a parable throughout the year. It starts at 34 during January, after which a steady decline can be observed, reaching TKN_About value in June at 0. During the TKN_About rapidly increases until the maximum is reached in November at approximately 100. There is a small decrease in December. </t>
         </is>
       </c>
       <c r="Y120" t="n">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>The line chart reports the values about the total TKN_About (FPPI) in TKN_Geo during TKN_Year. During the first half of the TKN_About shown an ascendant trend, reaching its maximum value during the months of June and July. After that, it rapidly dropped from over 97 to less than 6 in the month of Setpember. </t>
+          <t>The line chart reports the values TKN_About TKN_UOM in TKN_Geo during TKN_Year. During the first half of the TKN_About shown an ascendant trend, reaching its maximum value during the months of June and July. After that, it rapidly dropped from over 97 to less than 6 in the month of Setpember. </t>
         </is>
       </c>
       <c r="Y121" t="n">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>The diagramm showes the toatal TKN_About of TKN_Geo over the year TKN_Year. From January to TKN_About increase. in April there is a small  drop and afterwards a continous increase till June. It stays constant between June and July and decrase rapitly till September/October. At october the annual minimum is reached. In November there is a small increase and in December it drops again. </t>
+          <t>The diagramm showes TKN_UOM of TKN_Geo over the year TKN_Year. From January to TKN_About increase. in April there is a small  drop and afterwards a continous increase till June. It stays constant between June and July and decrase rapitly till September/October. At october the annual minimum is reached. In November there is a small increase and in December it drops again. </t>
         </is>
       </c>
       <c r="Y122" t="n">
@@ -11463,7 +11463,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>The following graph shows the total TKN_About value in TKN_Geo during TKN_Year, and the values are described using the farm product price index (FPPI) as UOM. It's possible to see TKN_About value considerably increased from January until July. After that, it dropped between July and September. </t>
+          <t>The following graph shows the TKN_About value in TKN_Geo during TKN_Year, and the values are described using the TKN_UOM as UOM. It's possible to see TKN_About value considerably increased from January until July. After that, it dropped between July and September. </t>
         </is>
       </c>
       <c r="Y123" t="n">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>The following line chart is about the TKN_About grains in TKN_Geo during TKN_Year. The values are reported using the FPPI (Farm product pridce index). It's clearly possible to see how the TKN_About grains is quite low from January to May, but then it rapidly increase from June to December, reaching its maximum value during September TKN_Year. </t>
+          <t>The following line chart is about the TKN_About in TKN_Geo during TKN_Year. The values are reported using the FPPI (Farm product pridce index). It's clearly possible to see how the TKN_About is quite low from January to May, but then it rapidly increase from June to December, reaching its maximum value during September TKN_Year. </t>
         </is>
       </c>
       <c r="Y124" t="n">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in TKN_Geo in TKN_Year. The first five TKN_About the year it oscillates at around 4. the next two months the production increase. It drop a little bit in August and rise again in September to the annual TKN_About 105. in October, November and December there is a slightly and continously decrease. </t>
+          <t>The graph shows the TKN_About in TKN_Geo in TKN_Year. The first five TKN_About the year it oscillates at around 4. the next two months TKN_About increase. It drop a little bit in August and rise again in September to the annual TKN_About 105. in October, November and December there is a slightly and continously decrease. </t>
         </is>
       </c>
       <c r="Y125" t="n">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>The grain production TKN_About the year TKN_Year saw a zig-zag pattern from January to May before increasing in July and remained relatively stable for the rest of the year at the increased price. </t>
+          <t>The grain TKN_About the year TKN_Year saw a zig-zag pattern from January to May before increasing in July and remained relatively stable for the rest of the year at the increased price. </t>
         </is>
       </c>
       <c r="Y126" t="n">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>This chart shows TKN_About fresh fruit, by the farm product price index, in TKN_Geo in TKN_Year. We see a generally increasing pattern throughout the year. We start at a markedly TKN_About production from January until May, at which point production starts to increase until July. </t>
+          <t>This chart shows the TKN_About fruit, TKN_UOM index, in TKN_Geo in TKN_Year. We see a generally increasing pattern throughout the year. We start at a markedly low TKN_About from January until May, at which point production starts to increase until July. </t>
         </is>
       </c>
       <c r="Y127" t="n">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo during TKN_Year has been increasing over the year. Even that, several fluctuations have been recorded, in particular during the TKN_About the year. The maximum values have been recorded during November and December. During the TKN_About the year, from January to May, have been recorded the minimum production values. </t>
+          <t>The TKN_About in TKN_Geo during TKN_Year has been increasing over the year. Even that, several fluctuations have been recorded, in particular during the TKN_About the year. The maximum values have been recorded during November and December. During the TKN_About the year, from January to May, have been recorded the minimum production values. </t>
         </is>
       </c>
       <c r="Y128" t="n">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo clearly showed an ascendant trend during TKN_Year. The values have been oscillating up and down several times over the year, even if the trend kept growing up. The production reached its maximum value during TKN_About December, and its minimum values during the first months of the year. </t>
+          <t>The TKN_About in TKN_Geo clearly showed an ascendant trend during TKN_Year. The values have been oscillating up and down several times over the year, even if the trend kept growing up. The production reached its maximum value during the month of December, and its minimum values during the first months of the year. </t>
         </is>
       </c>
       <c r="Y129" t="n">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>This line chart describes the production TKN_About of TKN_Geo in TKN_Year. In January TKN_About 19 can be observed. This decreases in TKN_About February and from then onwards a small, but constant increase is taking place until the maximum of over 97 can be seen in September. After September production TKN_About steadily decreases again, with a small increase in November. A value of approximately 53 is observed in December. </t>
+          <t>This line chart describes the TKN_About of TKN_Geo in TKN_Year. In January TKN_About 19 can be observed. This decreases in TKN_About February and from then onwards a small, but constant increase is taking place until the maximum of over 97 can be seen in September. After September TKN_About steadily decreases again, with a small increase in November. A value of approximately 53 is observed in December. </t>
         </is>
       </c>
       <c r="Y130" t="n">
@@ -12178,12 +12178,12 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>A line chart about the production of fresh vegetables in Canada in the year 2017.</t>
+          <t>A line chart about the production of fresh vegetables in Canada in the year 2017. Values ​​are analyzed in the different months of the year. </t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>A line chart about the production TKN_About in TKN_Geo in the year TKN_Year.</t>
+          <t>A line chart about the TKN_About in TKN_Geo in the year TKN_Year. Values ​​are analyzed in the TKN_About the year. </t>
         </is>
       </c>
       <c r="Y131" t="n">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>The graph illustrated the production TKN_About in TKN_Geo in TKN_Year. The measurement used is the farm product price index (FPPI): There is a clear peak in August, reaching TKN_About more than 96. </t>
+          <t>The graph illustrated the TKN_About in TKN_Geo in TKN_Year. The measurement used is TKN_UOM (FPPI): There is a clear peak in August, reaching TKN_About more than 96. </t>
         </is>
       </c>
       <c r="Y132" t="n">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the production TKN_About in TKN_Geo during TKN_Year maintained the same level for almost the whole year, but the summer months. During the summer months have been registered the highest values, in particular during August which was the TKN_About production. After that, the values dropped down form August to October. </t>
+          <t>It's clearly possible to see how the TKN_About in TKN_Geo during TKN_Year maintained the same level for almost the whole year, but the summer months. During the summer months have been registered the highest values, in particular during August which was the TKN_About production. After that, the values dropped down form August to October. </t>
         </is>
       </c>
       <c r="Y133" t="n">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo TKN_Year shows the highest values during the summer months. In particular, the production reports its maximum value during TKN_About August. It remain quite steady during the TKN_About the year. The minimum value was during October TKN_Year. </t>
+          <t>The TKN_About in TKN_Geo TKN_Year shows the highest values during the summer months. In TKN_About reports its maximum value during the month of August. It remain quite steady during the TKN_About the year. The minimum value was during October TKN_Year. </t>
         </is>
       </c>
       <c r="Y134" t="n">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>This graph represents the total TKN_About of TKN_Geo in TKN_Year. The number of products experiences a sharp increase from January until reaching the maximum during June, whereas a small decline is observed in the month of April. From June until September the total TKN_About rapidly decline and reach a minimum of under 2 in September. </t>
+          <t>This graph represents the TKN_About of TKN_Geo in TKN_Year. The number of products experiences a sharp increase from January until reaching the maximum during June, whereas a small decline is observed in the month of April. From June until September the TKN_About rapidly decline and reach a minimum of under 2 in September. </t>
         </is>
       </c>
       <c r="Y135" t="n">
@@ -12628,12 +12628,12 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>As it's possible to see in the shown graph, the total livestock and animal products reported the highest values during the first half of the year.</t>
+          <t>As it's possible to see in the shown graph, the total livestock and animal products reported the highest values during the first half of the year. In particular, the maximum value was recorded during June 2017. After that, it rapidly decreased from June until September. The minimum value was during September 2017. </t>
         </is>
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>As it's possible to see in the shown graph, the total TKN_About reported the highest values during the first half of the year.</t>
+          <t>As it's possible to see in the shown graph, the TKN_About reported the highest values during the first half of the year. In particular, the maximum value was recorded during June TKN_Year. After that, it rapidly decreased from June until September. The minimum value was during September TKN_Year. </t>
         </is>
       </c>
       <c r="Y136" t="n">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>Production of poultry including chickens, turkeys, chicks and poults reaches its maximum during the month of May with a number of 100 in TKN_Geo. The TKN_About poultry can be observed from February until May, while a drop from May to July takes place. From August until November the production remains quite stable at approximately 62 and starts decreasing until it reaches its minimum in February below 4. </t>
+          <t>Production of poultry including chickens, turkeys, chicks and poults reaches its maximum during the month of May with a number of 100 in TKN_Geo. The TKN_About poultry can be observed from February until May, while a drop from May to July takes place. From TKN_About remains quite stable at approximately 62 and starts decreasing until it reaches its minimum in February below 4. </t>
         </is>
       </c>
       <c r="Y137" t="n">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in TKN_Geo in the year of TKN_Year. There is one data TKN_About the year. Production is measured by the farm product price index. The x-axis shows the months, the y-axis the index ranging from 4 to 100. There is a TKN_About 1215) and a low in February (a bit below 1190). </t>
+          <t>The graph shows the TKN_About in TKN_Geo in the year of TKN_Year. There is one data TKN_About the year. Production is measured TKN_UOM index. The x-axis shows the months, the y-axis the index ranging from 4 to 100. There is a TKN_About 1215) and a low in February (a bit below 1190). </t>
         </is>
       </c>
       <c r="Y138" t="n">
@@ -12898,12 +12898,12 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>The following graph describes how the FPPI (farm product price index) about production of eggs in shell in Canada has been slowly increasing during 2017.</t>
+          <t>The following graph describes how the FPPI (farm product price index) about production of eggs in shell in Canada has been slowly increasing during 2017. In particular, it increased from 1362 in February to 1371 in December. </t>
         </is>
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>The following graph describes how the FPPI (farm product price index) about production TKN_About in TKN_Geo has been slowly increasing during TKN_Year.</t>
+          <t>The following graph describes how TKN_UOM index) about TKN_About in TKN_Geo has been slowly increasing during TKN_Year. In particular, it increased from 0 in February to 100 in December. </t>
         </is>
       </c>
       <c r="Y139" t="n">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>This graph depicts the production TKN_About in TKN_Geo during TKN_Year. The unit is farm product price index (FPPI). Production starts off at approximately 11 in January and goes down to the lowest production at 0 during February. During the months of March and May the production remains unchanged at 33. There is TKN_About production during June, until it remain stable throughout July until September at 56. Then, a small drop can be observed, which is followed by a sharp increase, until it peaks during December at 100. </t>
+          <t>This graph depicts the TKN_About in TKN_Geo during TKN_Year. The unit TKN_UOM (FPPI). Production starts off at approximately 11 in January and goes down to the lowest production at 0 during February. During the months TKN_About remains unchanged at 33. There is a TKN_About during June, until it remain stable throughout July until September at 56. Then, a small drop can be observed, which is followed by a sharp increase, until it peaks during December at 100. </t>
         </is>
       </c>
       <c r="Y141" t="n">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>The line chart illustrates the production TKN_About in TKN_Geo during TKN_Year. The values are described using the farm product price index (FPPI). It's clearly possible to see two main peaks over the year, one during February and one during October. At the same time, during the summer the production significantly decreased, reaching its minimum value during TKN_About July. </t>
+          <t>The line chart illustrates the TKN_About in TKN_Geo during TKN_Year. The values are described using TKN_UOM (FPPI). It's clearly possible to see two main peaks over the year, one during February and one during October. At the same time, during the TKN_About significantly decreased, reaching its minimum value during the month of July. </t>
         </is>
       </c>
       <c r="Y142" t="n">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>Graph that describes the production TKN_About in TKN_Geo in TKN_Year. The production in October and February is the highest, while there is a significant drop the following TKN_About each. The production slightly rises in May but it then plunges until July, where the lowest value can be seen. After that month, there is a steady increase until October. </t>
+          <t>Graph that describes the TKN_About in TKN_Geo in TKN_Year. The production in October and February is the highest, while there is a significant drop the following two months of each. The production slightly rises in May but it then plunges until July, where the lowest value can be seen. After that month, there is a steady increase until October. </t>
         </is>
       </c>
       <c r="Y143" t="n">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>As it's possible to see from the graph, the production TKN_About in TKN_Geo reported two significant peaks during TKN_Year, one in February and one in October. Futhermore, from February to July the production value strongly decrease, reaching the yearly minimum value during July. </t>
+          <t>As it's possible to see from the graph, the TKN_About in TKN_Geo reported two significant peaks during TKN_Year, one in February and one in October. Futhermore, from February to TKN_About value strongly decrease, reaching the yearly minimum value during July. </t>
         </is>
       </c>
       <c r="Y144" t="n">
@@ -13438,12 +13438,12 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>The line chart shows the farm product price index (FPPI) about production of grain in Canada during 2016.</t>
+          <t>The line chart shows the farm product price index (FPPI) about production of grain in Canada during 2016. It's possible to see how the index has been quite steady from January to June, but then a relevant drop has been recorded from June to August, where the index dropped from 1100 to 980. During the last few months of the year the index slowly started to increase again. </t>
         </is>
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>The line chart shows the farm product price index (FPPI) about TKN_About grain in TKN_Geo during TKN_Year.</t>
+          <t>The line chart shows the TKN_UOM about TKN_About grain in TKN_Geo during TKN_Year. It's possible to see how the index has been quite steady from January to June, but then a relevant drop has been recorded from June to August, where the index dropped from 93 to 8. During the last few TKN_About the year the index slowly started to increase again. </t>
         </is>
       </c>
       <c r="Y145" t="n">
@@ -13528,12 +13528,12 @@
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>The aforementioned graph shows the production of grains in FPPI units divided by months of the year 2016.</t>
+          <t>The aforementioned graph shows the production of grains in FPPI units divided by months of the year 2016. Starting point is at 1100 in January and after some slight ups and downs it increased to around 1115 in May only to plummet over the next few months to its lowest point around 970 in September just to increase to 1030 in December again. </t>
         </is>
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>The aforementioned graph shows the TKN_About grains in FPPI units divided by months of the year TKN_Year.</t>
+          <t>The aforementioned graph shows the TKN_About in FPPI units divided by months of the year TKN_Year. Starting point is at 93 in January and after some slight ups and downs it increased to around 104 in May only to plummet over the next few months to its lowest point around 1 in September just to increase to 44 in December again. </t>
         </is>
       </c>
       <c r="Y146" t="n">
@@ -13618,12 +13618,12 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>The graph illustrates the production of Grains in Canada in in 2016.</t>
+          <t>The graph illustrates the production of Grains in Canada in in 2016. The first few monthes till May the production fluctuate at around 1100. In june it starts to decrease a little bit and in july and august there is a massive drop. In September the graph keeps going decreasing and reach the annual minimum. The last monthes of the year the graph is increasing again. </t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>The graph illustrates the production TKN_About in TKN_Geo in in TKN_Year.</t>
+          <t>The graph illustrates the TKN_About in TKN_Geo in in TKN_Year. The first few monthes till May TKN_About fluctuate at around 93. In june it starts to decrease a little bit and in july and august there is a massive drop. In September the graph keeps going decreasing and reach the annual minimum. The last TKN_About the year the graph is increasing again. </t>
         </is>
       </c>
       <c r="Y147" t="n">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>It's clearly possible to see from this graph how the TKN_About grains in TKN_Geo had a big drop from June to August TKN_Year. During the first few months, from January to June, the value remained quite stable. But then it dramatically dropped down. Even that, during the last few TKN_About the year the production of value slightly started to grow up again. </t>
+          <t>It's clearly possible to see from this graph how the TKN_About in TKN_Geo had a big drop from June to August TKN_Year. During the first few months, from January to June, the value remained quite stable. But then it dramatically dropped down. Even that, during the last few months of the year the TKN_About value slightly started to grow up again. </t>
         </is>
       </c>
       <c r="Y148" t="n">
@@ -13798,12 +13798,12 @@
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>The chart is showing the values about the production of fresh vegetables in Canada during 2016.</t>
+          <t>The chart is showing the values about the production of fresh vegetables in Canada during 2016. The values are illustrated using the farm product price index (FPPI). As can be seen from the graph, from January to May the values have been rapidly decreasing. Then, a peak has been recorded during the month of June, but after that the values started to decrease again until October. During the last two months of the year the production significantly jumped up, reaching the maximum value of the year during the month of December. </t>
         </is>
       </c>
       <c r="X149" t="inlineStr">
         <is>
-          <t>The chart is showing the values about the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The chart is showing the values about the TKN_About in TKN_Geo during TKN_Year. The values are illustrated using TKN_UOM (FPPI). As can be seen from the graph, from January to May the values have been rapidly decreasing. Then, a peak has been recorded during TKN_About June, but after that the values started to decrease again until October. During the last two months TKN_About significantly jumped up, reaching the maximum value of the year during the month of December. </t>
         </is>
       </c>
       <c r="Y149" t="n">
@@ -13888,12 +13888,12 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>The given graph shows the monthly development of the production of fresh vegetables in Farm product price index in 2016 in Canada.</t>
+          <t>The given graph shows the monthly development of the production of fresh vegetables in Farm product price index in 2016 in Canada. After starting out at 1402 in January it immediately starts falling to 1360 in May, rising again to 1375 in June and then falling to 1343 in August. After staying pretty flat until October it starts skyrocketing to its highest point of 1410 in December. </t>
         </is>
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>The given graph shows the monthly development of the production TKN_About in Farm product price index in TKN_Year in TKN_Geo.</t>
+          <t>The given graph shows the monthly development of the TKN_About TKN_UOM in TKN_Year in TKN_Geo. After starting out at 88 in January it immediately starts falling to 25 in May, rising again to 48 in June and then falling to 0 in August. After staying pretty flat until October it starts skyrocketing to its TKN_About 100 in December. </t>
         </is>
       </c>
       <c r="Y150" t="n">
@@ -13978,12 +13978,12 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>The graph highlights the production of fresh vegetables over the course of a year.</t>
+          <t>The graph highlights the production of fresh vegetables over the course of a year. It follow a "U" shape with a local increase in the month of June. </t>
         </is>
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>The graph highlights the production TKN_About over the course of a year.</t>
+          <t>The graph highlights the TKN_About over the course of a year. It follow a "U" shape with a local increase in TKN_About June. </t>
         </is>
       </c>
       <c r="Y151" t="n">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>This graph illustrates the production TKN_About in TKN_Geo in TKN_Year. Production mainly starts in March, with a slow increase throughout until June. Production sharply increases from June onwards, reaching a maximum of nearly 104 during August. A rapid drop follows between August and October, reaching TKN_About below 1. The graph depicts a short increase in production from October until December and comes back to nearly minimum during January and February. </t>
+          <t>This graph illustrates the TKN_About in TKN_Geo in TKN_Year. Production mainly starts in March, with a slow increase throughout until June. Production sharply increases from June onwards, reaching a maximum of nearly 104 during August. A rapid drop follows between August and October, reaching TKN_About below 1. The graph depicts a short TKN_About from October until December and comes back to nearly minimum during January and February. </t>
         </is>
       </c>
       <c r="Y152" t="n">
@@ -14163,7 +14163,7 @@
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>The following graph is showing the recorded values about production TKN_About in TKN_Geo during TKN_Year. The values have been reported using the farm product price index (FPPI). As it is shown, the production slightly increase during the TKN_About the year, but then it rapidly grow during the summer months, reaching its maximum value during the month of August. After the summer, the production value drop, reaching its minimum value in October. </t>
+          <t>The following graph is showing the recorded values about TKN_About in TKN_Geo during TKN_Year. The values have been reported using TKN_UOM (FPPI). As it is TKN_About slightly increase during the first half of the year, but then it rapidly grow during the summer months, reaching its maximum value during the month of August. After the TKN_About value drop, reaching its minimum value in October. </t>
         </is>
       </c>
       <c r="Y153" t="n">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo during TKN_Year reached its maximum values during the months of July, August and September. In particular, the maximum value over the year has been registered during TKN_About August. It's clearly possible to see how the production TKN_About is way higher during the summer months than during the winter one. </t>
+          <t>The TKN_About in TKN_Geo during TKN_Year reached its maximum values during the months of July, August and September. In particular, the maximum value over the year has been registered during TKN_About August. It's clearly possible to see how the TKN_About is way higher during the summer months than during the winter one. </t>
         </is>
       </c>
       <c r="Y154" t="n">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="X155" t="inlineStr">
         <is>
-          <t>The chart shows the farm product price index (FPPI) about total TKN_About in TKN_Geo during TKN_Year. The index has been quite steady during the first few months of the year, with a maximum value in March, but then it rapidly decreased from June over, reaching the minimum value during October which was around 1. The index started to slowly grow again during the TKN_About December. </t>
+          <t>The chart shows the TKN_UOM about TKN_About in TKN_Geo during TKN_Year. The index has been quite steady during the first few months of the year, with a maximum value in March, but then it rapidly decreased from June over, reaching the minimum value during October which was around 1. The index started to slowly grow again during the TKN_About December. </t>
         </is>
       </c>
       <c r="Y155" t="n">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>The accompanying shows the monthly development of total TKN_About production in the year TKN_Year in TKN_Geo, measured in FPPI. It starts out at 90 in January, increases slightly to just shy of 102 in March, falls to TKN_About increases again to 95 in June. After that it constantly decreases until reaching its lowest point of -3 in October. It continues to rise afterwards. </t>
+          <t>The accompanying shows the monthly development of TKN_About production in the year TKN_Year in TKN_Geo, measured in FPPI. It starts out at 90 in January, increases slightly to just shy of 102 in March, falls to TKN_About increases again to 95 in June. After that it constantly decreases until reaching its lowest point of -3 in October. It continues to rise afterwards. </t>
         </is>
       </c>
       <c r="Y156" t="n">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>The total TKN_About in TKN_Geo has been quite steady during the first few months of the TKN_Year. After that, it rapidly declined from June until October. During last three months of the year it started to slightly increase again. The highest value of the year was TKN_About the lowest in October. </t>
+          <t>The TKN_About in TKN_Geo has been quite steady during the first few months of the TKN_Year. After that, it rapidly declined from June until October. During last three months of the year it started to slightly increase again. The highest value of the year was TKN_About the lowest in October. </t>
         </is>
       </c>
       <c r="Y157" t="n">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>This graph shows the TKN_About and poults, measured by the farm product price index. The recorded data is from TKN_Geo, TKN_Year. The graph's line reaches its high in TKN_About 100. The decline in the following month stands out, TKN_About 0 in November and December. </t>
+          <t>This graph shows the TKN_About and poults, measured TKN_UOM index. The recorded data is from TKN_Geo, TKN_Year. The graph's line reaches its high in TKN_About 100. The decline in the following month stands out, TKN_About 0 in November and December. </t>
         </is>
       </c>
       <c r="Y158" t="n">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="X159" t="inlineStr">
         <is>
-          <t>The production TKN_About fluctuates in TKN_Geo during the year TKN_Year. From Januar until June it is remaining almost stable. From June until October it rises continuously and reaches the maximum value in october. In november and december it shows the smallest value. </t>
+          <t>The TKN_About fluctuates in TKN_Geo during the year TKN_Year. From Januar until June it is remaining almost stable. From June until October it rises continuously and reaches the maximum value in october. In november and december it shows the smallest value. </t>
         </is>
       </c>
       <c r="Y159" t="n">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>The graph is showing the trend about production TKN_About in TKN_Geo during TKN_Year. The values are illustrated using the farm product price index (FPPI). The values have been fluactuating over the year, with several dips and peaks. The maximum value was in October TKN_Year. During the last two months of the year, Nov and Dec, was recorded TKN_About TKN_Year. </t>
+          <t>The graph is showing the trend about TKN_About in TKN_Geo during TKN_Year. The values are illustrated using TKN_UOM (FPPI). The values have been fluactuating over the year, with several dips and peaks. The maximum value was in October TKN_Year. During the last two months of the year, Nov and Dec, was recorded TKN_About TKN_Year. </t>
         </is>
       </c>
       <c r="Y160" t="n">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="X161" t="inlineStr">
         <is>
-          <t>This charts shows the TKN_About shell, as measured by the farm product price index, in TKN_Geo in TKN_Year. Production in January starts at a relatively high level, before increasing in February. After this, a gradual decline follows, TKN_About July. After this, production recovers over TKN_About year, reaching near the maximum by Oct before reaching the maximum by November and December. </t>
+          <t>This charts shows the TKN_About shell, as measured TKN_UOM index, in TKN_Geo in TKN_Year. Production in January starts at a relatively high level, before increasing in February. After this, a gradual decline follows, TKN_About July. After this, TKN_About the year, reaching near the maximum by Oct before reaching the maximum by November and December. </t>
         </is>
       </c>
       <c r="Y161" t="n">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>The graph indicates the production TKN_About in canada in the year of TKN_Year. As the graph rises from January to February, it drops sharply until July, before TKN_About 4. Subsequently, the value rises continuously until the end of the year, reaching a TKN_About December. </t>
+          <t>The graph indicates the TKN_About in canada in the year of TKN_Year. As the graph rises from January to February, it drops sharply until July, before TKN_About 4. Subsequently, the value rises continuously until the end of the year, reaching a TKN_About December. </t>
         </is>
       </c>
       <c r="Y162" t="n">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="X163" t="inlineStr">
         <is>
-          <t>The shown data values are about the production TKN_About in TKN_Geo during TKN_Year. They are described using the farm product price index (FPPI). The values slightly increased from January to February. After that, from February over it steeply declined until reaching the minimum value TKN_About July. Then, the production value started to rise again until TKN_About year. During the last three months the value remained quite stable. </t>
+          <t>The shown data values are about the TKN_About in TKN_Geo during TKN_Year. They are described using TKN_UOM (FPPI). The values slightly increased from January to February. After that, from February over it steeply declined until reaching the minimum value TKN_About July. Then, the production value started to rise again until TKN_About year. During the last three months the value remained quite stable. </t>
         </is>
       </c>
       <c r="Y163" t="n">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>This chart represents the production TKN_About of TKN_Geo in TKN_Year. Whereas the production oscillates from January until June ranging from 34 until 53 a TKN_About below 9 is observed during July. The following three months a sharp increase is taking place and reaching TKN_About approximately 98. The production stays almost consistent from October until December. </t>
+          <t>This chart represents the TKN_About of TKN_Geo in TKN_Year. Whereas the production oscillates from January until June ranging from 34 until 53 a minimum value of below 9 is observed during July. The following three months a sharp increase is taking place and reaching TKN_About approximately 98. The production stays almost consistent from October until December. </t>
         </is>
       </c>
       <c r="Y164" t="n">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="X165" t="inlineStr">
         <is>
-          <t>The provided graph depicts the changes in the production TKN_About in TKN_Geo in TKN_Year. The first value sits at 34 in January, giving way to a slight increase to 56 that is followed by a decline back to 35 in April. A short rise follows in may but its crashing to -1 in July. The following months show a steep increase till October, followed by a slow and steady rise till December. </t>
+          <t>The provided graph depicts the changes in the TKN_About in TKN_Geo in TKN_Year. The first value sits at 34 in January, giving way to a slight increase to 56 that is followed by a decline back to 35 in April. A short rise follows in may but its crashing to -1 in July. The following months show a steep increase till October, followed by a slow and steady rise till December. </t>
         </is>
       </c>
       <c r="Y165" t="n">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="X166" t="inlineStr">
         <is>
-          <t>A graph showing the farm product price index over TKN_About the year TKN_Year in TKN_Geo. It shows a significant price drop in July followed by a TKN_About the FPPPI until October. </t>
+          <t>A graph showing TKN_UOM over TKN_About the year TKN_Year in TKN_Geo. It shows a significant price drop in July followed by a TKN_About the FPPPI until October. </t>
         </is>
       </c>
       <c r="Y166" t="n">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>The commercial TKN_About in TKN_Geo decreased over TKN_Year. It's clearly possible to see how it rapidly drop from January to April. After that, TKN_About values have been fluctuating for most of the year. </t>
+          <t>The TKN_About in TKN_Geo decreased over TKN_Year. It's clearly possible to see how it rapidly drop from January to April. After that, TKN_About values have been fluctuating for most of the year. </t>
         </is>
       </c>
       <c r="Y169" t="n">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="X170" t="inlineStr">
         <is>
-          <t>The commercial TKN_About was slightly increasing during the three first months of the year TKN_Year, then slightly decline for a month. Afterwards it stayed constant for a month until a massive drop for -1637 months, to grow again for a month and then decrease again. The -1635 last months of the TKN_About surges again. </t>
+          <t>The TKN_About was slightly increasing during the three first months of the year TKN_Year, then slightly decline for a month. Afterwards it stayed constant for a month until a massive drop for -1637 months, to grow again for a month and then decrease again. The -1635 last months of the TKN_About surges again. </t>
         </is>
       </c>
       <c r="Y170" t="n">
@@ -15783,7 +15783,7 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>The Diagramm showes the commercial TKN_About of TKN_Geo over the year TKN_Year. The index is quite stable between Jannuary and May with a small peak in March. Then it drops suddenly till July. It increaes a little bit in August and drop again in September to the lowest point of the year (less then 1120). From September to December it increase slightly to 37. </t>
+          <t>The Diagramm showes the TKN_About of TKN_Geo over the year TKN_Year. The index is quite stable between Jannuary and May with a small peak in March. Then it drops suddenly till July. It increaes a little bit in August and drop again in September to the lowest point of the year (less then 1120). From September to December it increase slightly to 37. </t>
         </is>
       </c>
       <c r="Y171" t="n">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>The commercial TKN_About in TKN_Geo slipped down during the TKN_Year. The highest value has been recorded during March. Then, it significantly dropped between May and September. The minimu value was recorded during the month of September. During last -1635 months of the year it slightly started to increase again. </t>
+          <t>The TKN_About in TKN_Geo slipped down during the TKN_Year. The highest value has been recorded during March. Then, it significantly dropped between May and September. The minimu value was recorded during the month of September. During last -1635 months of the year it slightly started to increase again. </t>
         </is>
       </c>
       <c r="Y172" t="n">
@@ -15958,12 +15958,12 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>From the graph it is clear that desktop and similar computers are cheapest during the months of August, September, and October for the 2016 year.</t>
+          <t>From the graph it is clear that desktop and similar computers are cheapest during the months of August, September, and October for the 2016 year. They are the most expensive in February but see a steady decline until the month of September. </t>
         </is>
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>From the graph it is clear TKN_About are cheapest during the months of August, September, and October for the TKN_Year year.</t>
+          <t>From the graph it is clear TKN_About are cheapest during the months of August, September, and October for the TKN_Year year. They are the most expensive in February but see a steady decline until the month of September. </t>
         </is>
       </c>
       <c r="Y173" t="n">
@@ -16048,12 +16048,12 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Graphic of the market prices trend of Computers in Canada 2016.</t>
+          <t>Graphic of the market prices trend of Computers in Canada 2016. This graphic shows the trend of the computers prices in 2016 for the canadian market. It immediatly affect you how the prices raise from january to february and then slowly decrease until July. </t>
         </is>
       </c>
       <c r="X174" t="inlineStr">
         <is>
-          <t>Graphic of the market prices trend of Computers in TKN_Geo TKN_Year.</t>
+          <t>Graphic of the TKN_About in TKN_Geo TKN_Year. This graphic shows TKN_About prices in TKN_Year for the canadian market. It immediatly affect you how the prices raise TKN_About then slowly decrease until July. </t>
         </is>
       </c>
       <c r="Y174" t="n">
@@ -16138,12 +16138,12 @@
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>The graph shows the trend about desktop and similar computer price index in Canada over 2016.</t>
+          <t>The graph shows the trend about desktop and similar computer price index in Canada over 2016. After a significantly steep rise from January to February, the values started to slightly decline. They have been decreasing from February til September. A significant drop was registered between July and August. The minimum value over the year was in September 2016. During last few months of the year the price index started to slightly grow again. </t>
         </is>
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>The graph shows the TKN_About computer price index in TKN_Geo over TKN_Year.</t>
+          <t>The graph shows the trend about TKN_About index in TKN_Geo over TKN_Year. After a significantly steep rise from January to February, the values started to slightly decline. They have been decreasing from February til September. A significant drop TKN_About August. The minimum value over the year was in September TKN_Year. During last few months TKN_About index started to slightly grow again. </t>
         </is>
       </c>
       <c r="Y175" t="n">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="X176" t="inlineStr">
         <is>
-          <t>In this graph, the price index TKN_About can be seen. The data illustrated was collected in TKN_Geo in TKN_Year. The graph's line shows many ups and downs, with an overall high in February and May (index of 1010) and an overall low in August (index of 997). </t>
+          <t>In this graph, the TKN_About can be seen. The data illustrated was collected in TKN_Geo in TKN_Year. The graph's line shows many ups and downs, with an overall high in February and May (index of 1010) and an overall low in August (index of 997). </t>
         </is>
       </c>
       <c r="Y176" t="n">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>It describes the price index of laptop computer in TKN_Geo during TKN_Year. It's clearly possible to see how the values are strongly fluctuating over the year. The maximum values have been recorded during the may of February and May. The minimum value was in August TKN_Year. </t>
+          <t>It describes the TKN_About computer in TKN_Geo during TKN_Year. It's clearly possible to see how the values are strongly fluctuating over the year. The maximum values have been recorded during the may of February and May. The minimum value was in August TKN_Year. </t>
         </is>
       </c>
       <c r="Y177" t="n">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>The graph shows the price index of laptop computer in the year TKN_Year in TKN_Geo. The price index fluctuates hugely the first four monthes and reach the maximum in May. It falls in June and July and drop massivly in August. it rise again in September and October and stays constant in Novermber. In December it drop again. </t>
+          <t>The graph shows the TKN_About computer in the year TKN_Year in TKN_Geo. The price index fluctuates hugely the first four monthes and reach the maximum in May. It falls in June and July and drop massivly in August. it rise again in September and October and stays constant in Novermber. In December it drop again. </t>
         </is>
       </c>
       <c r="Y178" t="n">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="X180" t="inlineStr">
         <is>
-          <t>The provided graph depicts the development of the price index TKN_About in TKN_Geo in TKN_Year, divided by month. After a slow decline from 100 in January to 92 in February it crashes, reaching a low point of 30 in March. Afterwards it rises to 71 in April and then slowly but constantly declines to -2 in December. </t>
+          <t>The provided graph depicts the development of the TKN_About in TKN_Geo in TKN_Year, divided by month. After a slow decline from 100 in January to 92 in February it crashes, reaching a low point of 30 in March. Afterwards it rises to 71 in April and then slowly but constantly declines to -2 in December. </t>
         </is>
       </c>
       <c r="Y180" t="n">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="X181" t="inlineStr">
         <is>
-          <t>The graph shoes the overall decrease in tablet computer prices throughout the year. The months of March, June, September and December experienced more sharp drops than the others. The price index climbed slghtly after each sharp drop, but proceeded to slide again. </t>
+          <t>The graph shoes the overall TKN_About computer prices throughout the year. The months of March, June, September and December experienced more sharp drops than the others. The price index climbed slghtly after each sharp drop, but proceeded to slide again. </t>
         </is>
       </c>
       <c r="Y181" t="n">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="X182" t="inlineStr">
         <is>
-          <t>The price index for servers in 2994 rapidly fell from a high in January, to its lowest point in March of TKN_Year. After that the price index saw some fluctuation in the coming months until November, where it dropped again and did not change in December. </t>
+          <t>The TKN_About in 2994 rapidly fell from a high in January, to its lowest point in March of TKN_Year. After that TKN_About index saw some fluctuation in the coming months until November, where it dropped again and did not change in December. </t>
         </is>
       </c>
       <c r="Y182" t="n">
@@ -16863,7 +16863,7 @@
       </c>
       <c r="X183" t="inlineStr">
         <is>
-          <t>The graph showes the price index of servers in TKN_Year. It starts with the maximum value in January and falls massive till to the minimum in March. Afterwards it increases till June while dropping a little bit in May. In June it drops again and increase afterwards slowly till october. It fall again rapidly in November and stays constant in December. </t>
+          <t>The graph showes the TKN_About in TKN_Year. It starts with the maximum value in January and falls massive till to the minimum in March. Afterwards it increases till June while dropping a little bit in May. In June it drops again and increase afterwards slowly till october. It fall again rapidly in November and stays constant in December. </t>
         </is>
       </c>
       <c r="Y183" t="n">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="X184" t="inlineStr">
         <is>
-          <t>The graph shows the price index of serves in TKN_Geo during TKN_Year. At the beginning of the year, between January and March, the index considerably dropped down. After that, it has been oscillating over the rest of the year. A peak was recorded in June. The values strongly declined also between October and November. </t>
+          <t>The graph shows TKN_About index of serves in TKN_Geo during TKN_Year. At the beginning of the year, between January and March, the index considerably dropped down. After that, it has been oscillating over the rest of the year. A peak was recorded in June. The values strongly declined also between October and November. </t>
         </is>
       </c>
       <c r="Y184" t="n">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="X185" t="inlineStr">
         <is>
-          <t>The price index TKN_About in TKN_Geo in TKN_Year is illustrated by this graph. Whereas the maximum of 100 can be observed during January, a slow drop can be seen until May. The graph depicts a TKN_About June, reaching 21. For the following months the price index graph starts oscillating until reaching its minimum value in December at 0. </t>
+          <t>The TKN_About in TKN_Geo in TKN_Year is illustrated by this graph. Whereas the maximum of 100 can be observed during January, a slow drop can be seen until May. The graph depicts a TKN_About June, reaching 21. For TKN_About index graph starts oscillating until reaching its minimum value in December at 0. </t>
         </is>
       </c>
       <c r="Y185" t="n">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="X186" t="inlineStr">
         <is>
-          <t>This graph represents the price index TKN_About in TKN_Geo in TKN_Year. The maximum price of approximately 100 can be observed during January, whereas the price steadily decreases during the following months until May with 62. There is a sharp drop in June at a value of 21. The following months the price does not fluctuate too much, reaching a minimum of 0 in December. </t>
+          <t>This graph represents the TKN_About in TKN_Geo in TKN_Year. The maximum price of approximately 100 can be observed during January, whereas the price steadily decreases during the following months until May with 62. There is a sharp drop in June at a value of 21. The following months the price does not fluctuate too much, reaching a minimum of 0 in December. </t>
         </is>
       </c>
       <c r="Y186" t="n">
@@ -17223,7 +17223,7 @@
       </c>
       <c r="X187" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the price index TKN_About in TKN_Geo has been significantly decreasing over TKN_Year. Few fluctuations of the value have been recorded, but without any significant peaks or dips. The highest value was in January. The minimum value was in December TKN_Year. </t>
+          <t>It's clearly possible to see how the TKN_About in TKN_Geo has been significantly decreasing over TKN_Year. Few fluctuations of the value have been recorded, but without any significant peaks or dips. The highest value was in January. The minimum value was in December TKN_Year. </t>
         </is>
       </c>
       <c r="Y187" t="n">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="X188" t="inlineStr">
         <is>
-          <t>The following graph shows information about the laptop computer price index in TKN_Geo during TKN_Year. The overall trend is descending. It's clearly possible to see several fluctuations over the year, mainly during the summer months. The maximum value has been recorded during February and the minimum one during December. </t>
+          <t>The following graph shows information about the TKN_About index in TKN_Geo during TKN_Year. The overall trend is descending. It's clearly possible to see several fluctuations over the year, mainly during the summer months. The maximum value has been recorded during February and the minimum one during December. </t>
         </is>
       </c>
       <c r="Y188" t="n">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="X189" t="inlineStr">
         <is>
-          <t>The given graph shows the average retail price developement TKN_About in TKN_Geo in the year TKN_Year split into the different months. In january the price started out at 92 dollars, increased slightly and then plummeted to 25 dollars average in June. A short incline happend in July just for it falling back onto the June price in august. After a slight incline, the price fell to its lowest in december. </t>
+          <t>The given graph shows the average retail TKN_About in TKN_Geo in the year TKN_Year split into the different months. In TKN_About started out at 92 dollars, increased slightly and then plummeted to 25 dollars average in June. A short incline happend in July just for it falling back onto TKN_About in august. After a slight TKN_About fell to its lowest in december. </t>
         </is>
       </c>
       <c r="Y189" t="n">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="X190" t="inlineStr">
         <is>
-          <t>This is a line graph showing the TKN_Year price index of laptops in TKN_Geo. There is a declining trend throughout the year, with a slight spike in October. The graph's peak is in February at 994, and the graph's trough is in December at 0. </t>
+          <t>This is a line graph showing TKN_About index of laptops in TKN_Geo. There is a declining trend throughout the year, with a slight spike in October. The graph's peak is in February at 994, and the graph's trough is in December at 0. </t>
         </is>
       </c>
       <c r="Y190" t="n">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="X191" t="inlineStr">
         <is>
-          <t>The chart shows the variation TKN_About prices in TKN_Geo during the year TKN_Year. Except for some punctual oscillations, the overall trend is of price reduction throughout the period considered. </t>
+          <t>The chart shows the variation TKN_About prices in TKN_Geo during the year TKN_Year. Except for some punctual oscillations, the overall trend TKN_About reduction throughout the period considered. </t>
         </is>
       </c>
       <c r="Y191" t="n">
@@ -17673,7 +17673,7 @@
       </c>
       <c r="X192" t="inlineStr">
         <is>
-          <t>As it's possible to see from the graph, TKN_About price index in TKN_Geo rapidly decreased over TKN_Year. Few fluctuations have been reported over the year. The maximum value has been recorded during March and the minimum during December TKN_Year. </t>
+          <t>As it's possible to see from the graph, the TKN_About index in TKN_Geo rapidly decreased over TKN_Year. Few fluctuations have been reported over the year. The maximum value has been recorded during March and the minimum during December TKN_Year. </t>
         </is>
       </c>
       <c r="Y192" t="n">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="X193" t="inlineStr">
         <is>
-          <t>The graph shows a general downward trend of the price TKN_About over the year TKN_Year in TKN_Geo. There was a slight price climb in the middle of the year. As this is a price index and the y-axis is missing, one can only assume a relative decrease in price. </t>
+          <t>The graph shows a general downward trend of the TKN_About over the year TKN_Year in TKN_Geo. There was TKN_About climb in the middle of the year. As this TKN_About index and the y-axis is missing, one can only assume a relative decrease in price. </t>
         </is>
       </c>
       <c r="Y193" t="n">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="X194" t="inlineStr">
         <is>
-          <t>The graph showes the anual price index TKN_About in the year TKN_Year. The price in the first thre month is very high, especially in March. The following month ist drops and increase again in June and stays constant till July. Afterwards it decrease continusliy till December. Over the whole year there is a decreasing trend. </t>
+          <t>The graph showes the anual TKN_About in the year TKN_Year. The price in the first thre month is very high, especially in March. The following month ist drops and increase again in June and stays constant till July. Afterwards it decrease continusliy till December. Over the whole year there is a decreasing trend. </t>
         </is>
       </c>
       <c r="Y194" t="n">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>The price index of servers in TKN_Geo during TKN_Year is depicted in this line chart. Two maxima are reached during the months of January and June. Between aforementioned months the price varies and reaches a low point during April, from which there is a sharp increase until June. From June onwards the price decreases in an oscillating manner until it reaches its minimum of approximately -3477 in November. A small increase to 12 is observed in December. </t>
+          <t>The TKN_About in TKN_Geo during TKN_Year is depicted in this line chart. Two maxima are reached during the months of January and June. Between aforementioned months TKN_About varies and reaches a low point during April, from which there is a sharp increase until June. From June onwards TKN_About decreases in an oscillating manner until it reaches its minimum of approximately -3477 in November. A small increase to 12 is observed in December. </t>
         </is>
       </c>
       <c r="Y195" t="n">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>This shows the price index of servers in TKN_Year. it stayed relatively stable from the start of year into the third quarter before experiencing a decrease in the last quarter. There was also a dip in April. The price is an index that does not reflect absolute pricing. </t>
+          <t>This shows the TKN_About in TKN_Year. it stayed relatively stable from the start of year into the third quarter before experiencing a decrease in the last quarter. There was also a dip in April. The price is an index that does not reflect absolute pricing. </t>
         </is>
       </c>
       <c r="Y196" t="n">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="X197" t="inlineStr">
         <is>
-          <t>The line chart describes TKN_About price index trend in TKN_Geo during TKN_Year. It considerably oscillated over the year, with several peaks and dips. The highest values have been recorded during January and June. The minimum value was recorded in November TKN_Year. </t>
+          <t>The line chart describes the TKN_About index trend in TKN_Geo during TKN_Year. It considerably oscillated over the year, with several peaks and dips. The highest values have been recorded during January and June. The minimum value was recorded in November TKN_Year. </t>
         </is>
       </c>
       <c r="Y197" t="n">
@@ -18213,7 +18213,7 @@
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>As it can be seen from the graph, the price TKN_About computer in TKN_Geo during TKN_Year slowly decreased over the year with several fluctuations. During January and February the values remain stable, without any changes. The minimum values have TKN_About October. </t>
+          <t>As it can be seen from the graph, the TKN_About computer in TKN_Geo during TKN_Year slowly decreased over the year with several fluctuations. During January and February the values remain stable, without any changes. The minimum values have TKN_About October. </t>
         </is>
       </c>
       <c r="Y198" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="X199" t="inlineStr">
         <is>
-          <t>A line chart about the price TKN_About computer in TKN_Geo in the year TKN_Year. Values ​​are analyzed in the different months of the year. With index values ​​ranging from less than 11 to 100. </t>
+          <t>A line chart about the TKN_About computer in TKN_Geo in the year TKN_Year. Values ​​are analyzed in the different months of the year. With index values ​​ranging from less than 11 to 100. </t>
         </is>
       </c>
       <c r="Y199" t="n">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>This figure represents the Canadian price index TKN_About during TKN_Year. Maximum production is reached in TKN_About February at 100. From then on production oscillates in a decreasing manner, plateauing at 67 TKN_About at 33 during June and July. The minimum production TKN_About October. There is a rise from October until December, reaching a value of 44. </t>
+          <t>This figure represents the Canadian TKN_About during TKN_Year. Maximum production is reached in TKN_About February at 100. From then on production oscillates in a decreasing manner, plateauing at 67 TKN_About at 33 during June and July. The minimum production TKN_About October. There is a rise from October until December, reaching a value of 44. </t>
         </is>
       </c>
       <c r="Y200" t="n">
@@ -18483,7 +18483,7 @@
       </c>
       <c r="X201" t="inlineStr">
         <is>
-          <t>This graph represents the price index TKN_About in TKN_Geo. The price is the highest during the month of January at 100. From February until May the price starts fluctuating between roughly 50 to 79. Prices TKN_About show a dramatic drop during the month of June. The minimum value lies at 0. The price starts oscillating again between July and December with prices between 64 to 43. </t>
+          <t>This graph represents the TKN_About in TKN_Geo. The price is the highest during the month of January at 100. From February until TKN_About starts fluctuating between roughly 50 to 79. Prices TKN_About show a dramatic drop during the month of June. The minimum value lies at 0. The price starts oscillating again between July and December with prices between 64 to 43. </t>
         </is>
       </c>
       <c r="Y201" t="n">
@@ -18568,12 +18568,12 @@
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>This graph represents the price index of laptop computers in Canada in 2018.</t>
+          <t>This graph represents the price index of laptop computers in Canada in 2018. The peak value can be observed during January at 966. During the following months the price index fluctuates, until there is a sharp decline from May to June, reaching the lowest value of 952. There is a sharp increase during the month of July to 961. The price index fluctuates again from August until December. </t>
         </is>
       </c>
       <c r="X202" t="inlineStr">
         <is>
-          <t>This graph represents the price index TKN_About in TKN_Geo in TKN_Year.</t>
+          <t>This graph represents the TKN_About in TKN_Geo in TKN_Year. The peak value can be observed during January at 100. During the following TKN_About index fluctuates, until there is a sharp decline from May to June, reaching the lowest value of 0. There is a sharp increase during the month of July to 64. The price index fluctuates again from August until December. </t>
         </is>
       </c>
       <c r="Y202" t="n">
@@ -18663,7 +18663,7 @@
       </c>
       <c r="X203" t="inlineStr">
         <is>
-          <t>The line graph depicts the price index TKN_About in TKN_Geo for every month of TKN_Year. The overall trend for this year is a decrease. January recorded a high of 820, whereas November had a low of 1. </t>
+          <t>The line graph depicts the TKN_About in TKN_Geo for every month of TKN_Year. The overall trend for this year is a decrease. January recorded a high of 820, whereas November had a low of 1. </t>
         </is>
       </c>
       <c r="Y203" t="n">
@@ -18753,7 +18753,7 @@
       </c>
       <c r="X204" t="inlineStr">
         <is>
-          <t>The grapg shows the price index TKN_About in TKN_Geo in the year TKN_Year. It is noticeable that the price decreases almost continuously during the first third of the year. Afterwards, the price for the summer months remains constant, before falling massive in November. </t>
+          <t>The grapg shows the TKN_About in TKN_Geo in the year TKN_Year. It is noticeable TKN_About decreases almost continuously during the first third of the year. Afterwards, the price for the summer months remains constant, before falling massive in November. </t>
         </is>
       </c>
       <c r="Y204" t="n">
@@ -18843,7 +18843,7 @@
       </c>
       <c r="X205" t="inlineStr">
         <is>
-          <t>It shows the price index trend TKN_About in TKN_Geo during TKN_Year. It's possible to see how it considerably declined over the year. Over the year the values ahs been oscillating several times, in particular during the summer months. Even that, the maximum value was recorded in January and the minimum one in November TKN_Year. </t>
+          <t>It shows the TKN_About in TKN_Geo during TKN_Year. It's possible to see how it considerably declined over the year. Over the year the values ahs been oscillating several times, in particular during the summer months. Even that, the maximum value was recorded in January and the minimum one in November TKN_Year. </t>
         </is>
       </c>
       <c r="Y205" t="n">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="X206" t="inlineStr">
         <is>
-          <t>The graph depicts a price index of servers in TKN_Geo. Data was taken from TKN_Year. One can observe a decline in the price index within the first months of the year, reaching a low of 0 in April. Throughout the following three months, the index increased to 100 in July. Values decreased steadily until October (1006) and stayed the same for November and December (1008). </t>
+          <t>The graph depicts a TKN_About in TKN_Geo. Data was taken from TKN_Year. One can observe a decline in TKN_About index within the first months of the year, reaching a low of 0 in April. Throughout the following three months, the index increased to 100 in July. Values decreased steadily until October (1006) and stayed the same for November and December (1008). </t>
         </is>
       </c>
       <c r="Y206" t="n">
@@ -19018,12 +19018,12 @@
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>This figure represents the Canadian price index of servers in 2018.</t>
+          <t>This figure represents the Canadian price index of servers in 2018. The price index starts off at 1010 during January, and keeps decreasing throughout the following months, until it reaches its minimum value of below 998 in April. From then on there is a sharp increase, peaking in July at above 1012. During the following months a moderate decrease is experienced until October. The price index remains unchanged during November and December at 1008. </t>
         </is>
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>This figure represents the Canadian price index of servers in TKN_Year.</t>
+          <t>This figure represents the Canadian TKN_About in TKN_Year. The price index starts off at 81 during January, and keeps decreasing throughout the following months, until it reaches its minimum value of below 6 in April. From then on there is a sharp increase, peaking in July at above 94. During the following months a moderate decrease is experienced until October. The price index remains unchanged during November and December at 69. </t>
         </is>
       </c>
       <c r="Y207" t="n">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>This line chart represent TKN_About in TKN_Year. A slow, but steady increase is taking place from March until it reaches its peak in August with a total number of 97. After August TKN_About starts decreasing until reaching its minimum value below 6 in February. This big difference may be TKN_About warmer months of the year. </t>
+          <t>This line chart represent TKN_About in TKN_Year. A slow, but steady increase is taking place from March until it reaches its TKN_About TKN_UOM of 97. After August TKN_About starts decreasing until reaching its minimum value below 6 in February. This big difference may be TKN_About warmer months of the year. </t>
         </is>
       </c>
       <c r="Y208" t="n">
@@ -19203,7 +19203,7 @@
       </c>
       <c r="X209" t="inlineStr">
         <is>
-          <t>The provided graph displays TKN_About TKN_Geo over the year TKN_Year divided by month. It starts out at around TKN_About 135,000 in February and rises continuously to over 220,000 in August. The following TKN_About its second lowest point of just under 160,000 in December. </t>
+          <t>The provided graph displays TKN_About TKN_Geo over the year TKN_Year divided by month. It starts out at around TKN_About 135,000 in February and rises continuously to over 220,000 in August. The following month show a steady decrease to its second lowest point of just under 160,000 in December. </t>
         </is>
       </c>
       <c r="Y209" t="n">
@@ -19293,7 +19293,7 @@
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>The graph shows TKN_About in TKN_Year. The graph follows an uphill climb from January until TKN_About months of Feburary and June. After August, the graph has a falling TKN_About year. </t>
+          <t>The graph shows TKN_About in TKN_Year. The graph follows an uphill climb from January until August, except for dips in the months of Feburary and June. After August, the graph has a falling TKN_About year. </t>
         </is>
       </c>
       <c r="Y210" t="n">
@@ -19383,7 +19383,7 @@
       </c>
       <c r="X211" t="inlineStr">
         <is>
-          <t>This graph indicates the number of total TKN_About in TKN_Year. The lowest number of approximately TKN_About month of February. Over the following -144 months a steady increase takes place. As can be seen from TKN_About from June until August. After August the number steadily decreases until reaching its minimum in February. </t>
+          <t>This graph indicates the TKN_UOM of TKN_About in TKN_Year. The lowest TKN_UOM of approximately 3 can be observed during the month of February. Over the following -144 months a steady increase takes place. As can be seen from TKN_About from June until August. After August the TKN_UOM steadily decreases until reaching its minimum in February. </t>
         </is>
       </c>
       <c r="Y211" t="n">
@@ -19473,7 +19473,7 @@
       </c>
       <c r="X212" t="inlineStr">
         <is>
-          <t>The graph shows the trend of the total number of TKN_About year TKN_Year. The number drops between TKN_About minimum value in february. From february TKN_About maximum value in august. Between august and december the number decreases continuously. </t>
+          <t>The graph shows the trend of TKN_About TKN_Geo during the year TKN_Year. The TKN_UOM drops between TKN_About minimum value in february. From february TKN_About maximum value in august. Between august and december the TKN_UOM decreases continuously. </t>
         </is>
       </c>
       <c r="Y212" t="n">
@@ -19563,7 +19563,7 @@
       </c>
       <c r="X213" t="inlineStr">
         <is>
-          <t>The number of TKN_About during TKN_Year registered the highest values during the summer months. In particular, the maximum number was recorded during August TKN_Year. At the same time, the lowest value of the year was during the month of February. During the last few months of the year the number TKN_About slowly decreased. </t>
+          <t>The TKN_UOM of TKN_About during TKN_Year registered the highest values during the summer months. In particular, the maximum TKN_UOM was recorded during August TKN_Year. At the same time, the lowest value of the year was during the month of February. During the last few months of the year the TKN_UOM TKN_About slowly decreased. </t>
         </is>
       </c>
       <c r="Y213" t="n">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="X214" t="inlineStr">
         <is>
-          <t>This line graph illustrates the total number of TKN_About in TKN_Year. The x-axis TKN_About year, whereas the y-axis shows the number of vehicles. There is a rise TKN_About year, reaching a high in August (2300000). TKN_UOMs decrease TKN_About year. </t>
+          <t>This line graph illustrates the total TKN_UOM of TKN_About in TKN_Year. The x-axis shows the different months of the year, whereas the y-axis shows the TKN_UOM of vehicles. There is a rise TKN_About year, reaching a high in August (2300000). TKN_UOMs decrease TKN_About year. </t>
         </is>
       </c>
       <c r="Y214" t="n">
@@ -19743,7 +19743,7 @@
       </c>
       <c r="X215" t="inlineStr">
         <is>
-          <t>A line TKN_About TKN_Geo each month in TKN_Year. It indicates that travel was lowest during the winter months, reaching a minimum TKN_About summer months, peaking in August (but with a slight dip in June). The median number of returning vehicles is between 50 and 63. </t>
+          <t>A line TKN_About TKN_Geo each month in TKN_Year. It indicates that travel was lowest during the winter months, reaching a minimum TKN_About summer months, peaking in August (but with a slight dip in June). The median TKN_UOM of returning vehicles is between 50 and 63. </t>
         </is>
       </c>
       <c r="Y215" t="n">
@@ -19833,7 +19833,7 @@
       </c>
       <c r="X216" t="inlineStr">
         <is>
-          <t>The maximum value of total TKN_About during TKN_Year has been reached during the month of August. In particular, the value started to grow in March reaching its peak in August. After that, it slowly decreased. The minimum value was during February TKN_Year. </t>
+          <t>The maximum value of TKN_About during TKN_Year has been reached during the month of August. In particular, the value started to grow in March reaching its peak in August. After that, it slowly decreased. The minimum value was during February TKN_Year. </t>
         </is>
       </c>
       <c r="Y216" t="n">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="X217" t="inlineStr">
         <is>
-          <t>The graph illustrates the total number of TKN_About TKN_Geo. Data for every month of TKN_Year is shown. The numbers vary for each month. A high is reached in July (about 110 vehicles), probably because of people going on vacation. Low values can be found for the winter months, e. , TKN_About in January and February and roughly 11 vehicles in November and December. </t>
+          <t>The graph illustrates the total TKN_UOM of TKN_About TKN_Geo. Data for every month of TKN_Year is shown. The numbers vary for each month. A high is reached in July (about 110 vehicles), probably because of people going on vacation. Low values can be found for the winter months, e. , TKN_About in January and February and roughly 11 vehicles in November and December. </t>
         </is>
       </c>
       <c r="Y217" t="n">
@@ -20013,7 +20013,7 @@
       </c>
       <c r="X218" t="inlineStr">
         <is>
-          <t>This graph shows the number of TKN_About in TKN_Year. The TKN_About is about 11 at the start and end of the year. It increases towards summer. There is a peak in the middle of the year at 101 in July. </t>
+          <t>This graph shows the TKN_UOM of TKN_About in TKN_Year. The TKN_About is about 11 at the start and end of the year. It increases towards summer. There is a peak in the middle of the year at 101 in July. </t>
         </is>
       </c>
       <c r="Y218" t="n">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="X219" t="inlineStr">
         <is>
-          <t>This graph depicts the total number of TKN_About in TKN_Geo during TKN_Year. The TKN_About is observed in January, at approximately 1. During the following months TKN_About steadily increase until reaching the maximum number the year TKN_Year in July with approximately 101. From July until November a sharp drop is experienced, with numbers of around 11 in November. The number hardly changes in December. </t>
+          <t>This graph depicts the total TKN_UOM of TKN_About in TKN_Geo during TKN_Year. The TKN_About is observed in January, at approximately 1. During the following months TKN_About steadily increase until reaching the maximum TKN_UOM the year TKN_Year in July with approximately 101. From July until November a sharp drop is experienced, with numbers of around 11 in November. The TKN_UOM hardly changes in December. </t>
         </is>
       </c>
       <c r="Y219" t="n">
@@ -20193,7 +20193,7 @@
       </c>
       <c r="X220" t="inlineStr">
         <is>
-          <t>As it can be seen from the graph, the total number of TKN_About in TKN_Geo during TKN_Year presented the highest values during the summer period. In particular, the maximum value has been reached during July. The month with less TKN_About TKN_Geo over the year has been February TKN_Year. </t>
+          <t>As it can be seen from the graph, the total TKN_UOM of TKN_About in TKN_Geo during TKN_Year presented the highest values during the summer period. In particular, the maximum value has been reached during July. The month with less TKN_About TKN_Geo over the year has been February TKN_Year. </t>
         </is>
       </c>
       <c r="Y220" t="n">
@@ -20283,7 +20283,7 @@
       </c>
       <c r="X221" t="inlineStr">
         <is>
-          <t>A chart showing the number of TKN_About TKN_Geo sorted by month and showing the significant peak in the summer months. </t>
+          <t>A chart showing the TKN_UOM of TKN_About TKN_Geo sorted by month and showing the significant peak in the summer months. </t>
         </is>
       </c>
       <c r="Y221" t="n">
@@ -20373,7 +20373,7 @@
       </c>
       <c r="X222" t="inlineStr">
         <is>
-          <t>The total number TKN_About returning presents a steep growth over the first half of the year. In particular, it starts to grow during the month of February until reaching its peak during July TKN_Year. After that, it slightly start to decrease over the last few months of the year. The lowest value of the year was registered during February TKN_Year. </t>
+          <t>The TKN_About returning presents a steep growth over the first half of the year. In particular, it starts to grow during the month of February until reaching its peak during July TKN_Year. After that, it slightly start to decrease over the last few months of the year. The lowest value of the year was registered during February TKN_Year. </t>
         </is>
       </c>
       <c r="Y222" t="n">
@@ -20463,7 +20463,7 @@
       </c>
       <c r="X223" t="inlineStr">
         <is>
-          <t>The graph shows the the number of TKN_About TKN_Geo in TKN_Year. As illustrated form the graph, the spring months show the amount of cars steadily increasing and reaching their highest point in summer. For the following months, in fall, the TKN_About decline and reach their lowest point in winter. </t>
+          <t>The graph shows the the TKN_UOM of TKN_About TKN_Geo in TKN_Year. As illustrated form the graph, the spring months show the amount of cars steadily increasing and reaching their highest point in summer. For the following months, in fall, the TKN_About decline and reach their lowest point in winter. </t>
         </is>
       </c>
       <c r="Y223" t="n">
@@ -20553,7 +20553,7 @@
       </c>
       <c r="X224" t="inlineStr">
         <is>
-          <t>The displayed chart shows the total TKN_About TKN_Geo during TKN_Year. It's possible to see how the highest values have been recorded during the spring and summer months. In particular, the maximum TKN_About TKN_Geo has been reached July and a August. The months with minimum values have been January and February. </t>
+          <t>The displayed chart shows the TKN_About TKN_Geo during TKN_Year. It's possible to see how the highest values have been recorded during the spring and summer months. In particular, the maximum TKN_About TKN_Geo has been reached July and a August. The months with minimum values have been January and February. </t>
         </is>
       </c>
       <c r="Y224" t="n">
@@ -20643,7 +20643,7 @@
       </c>
       <c r="X225" t="inlineStr">
         <is>
-          <t>The graph TKN_About from the united states in canada in the year of TKN_Year. It is noticeable that the number is rising sharply by the middle of the year, reaching a maximum of 1,200,000 in August. Then the value is strong again until the end of the year. </t>
+          <t>The graph indicates the TKN_About in canada in the year of TKN_Year. It is noticeable that the TKN_UOM is rising sharply by the middle of the year, reaching a maximum of 1,200,000 in August. Then the value is strong again until the end of the year. </t>
         </is>
       </c>
       <c r="Y225" t="n">
@@ -20733,7 +20733,7 @@
       </c>
       <c r="X226" t="inlineStr">
         <is>
-          <t>The line chart shows the total number TKN_About TKN_Geo during TKN_Year. It's clearly possible to see how during the summer months the amount TKN_About TKN_Geo is way higher than the rest of the year, reaching the maximum value during the month of August with around 100 cars. </t>
+          <t>The line chart shows the TKN_About TKN_Geo during TKN_Year. It's clearly possible to see how during the summer months the amount TKN_About TKN_Geo is way higher than the rest of the year, reaching the maximum value during the month of August with around 100 cars. </t>
         </is>
       </c>
       <c r="Y226" t="n">
@@ -20823,7 +20823,7 @@
       </c>
       <c r="X227" t="inlineStr">
         <is>
-          <t>As it's shown in the graph, the number TKN_About TKN_Geo during TKN_Year has been much higher during the summer compared with the other months of the year. In particular, the maximum number TKN_About TKN_Geo in TKN_Year has been registered during August. At the same time, the minimum value during February. </t>
+          <t>As it's shown in the graph, the TKN_UOM TKN_About TKN_Geo during TKN_Year has been much higher during the summer compared with the other months of the year. In particular, the maximum TKN_UOM TKN_About TKN_Geo in TKN_Year has been registered during August. At the same time, the minimum value during February. </t>
         </is>
       </c>
       <c r="Y227" t="n">
@@ -20913,7 +20913,7 @@
       </c>
       <c r="X228" t="inlineStr">
         <is>
-          <t>The number of TKN_About TKN_Geo in TKN_Year is depicted in this graph. During January TKN_About enter. These numbers slightly decrease to 1 in February, the lowest value of the year. From then on a steady increase TKN_About can be observed, until the maximum value is reached in August at approxiamtely 100. From August until December the number TKN_About TKN_Geo experience a steady decrease, reaching a number of 22 at the end of the year. </t>
+          <t>The TKN_UOM of TKN_About TKN_Geo in TKN_Year is depicted in this graph. During January TKN_About enter. These numbers slightly decrease to 1 in February, the lowest value of the year. From then on a steady increase TKN_About can be observed, until the maximum value is reached in August at approxiamtely 100. From August until December the TKN_UOM TKN_About TKN_Geo experience a steady decrease, reaching a TKN_UOM of 22 at the end of the year. </t>
         </is>
       </c>
       <c r="Y228" t="n">
@@ -20998,12 +20998,12 @@
       </c>
       <c r="W229" t="inlineStr">
         <is>
-          <t>The shown graph is about the production of rye in Canada during 2018.</t>
+          <t>The shown graph is about the production of rye in Canada during 2018. The production values are quantified using tonnes as unit of measure. As can be seen from the graph, the values are oscillating over the year. Just one significant peak has been recorded during August 2018. The minimum value over the year was during December. </t>
         </is>
       </c>
       <c r="X229" t="inlineStr">
         <is>
-          <t>The shown graph is about the TKN_About rye in TKN_Geo during TKN_Year.</t>
+          <t>The shown graph is about the TKN_About in TKN_Geo during TKN_Year. The production values are quantified using TKN_UOM as unit of measure. As can be seen from the graph, the values are oscillating over the year. Just one significant peak has been recorded during August TKN_Year. The minimum value over the year was during December. </t>
         </is>
       </c>
       <c r="Y229" t="n">
@@ -21088,12 +21088,12 @@
       </c>
       <c r="W230" t="inlineStr">
         <is>
-          <t>Production of rye in Canada during 2018 got a considerable peak during August.</t>
+          <t>Production of rye in Canada during 2018 got a considerable peak during August. During most of the year the values have been fluctuating up and down, with several peaks and dips. Even that, the minimum value over 2018 has been recorded in December. </t>
         </is>
       </c>
       <c r="X230" t="inlineStr">
         <is>
-          <t>Production of rye in TKN_Geo during TKN_Year got a considerable peak during August.</t>
+          <t>Production of rye in TKN_Geo during TKN_Year got a considerable peak during August. During TKN_About the year the values have been fluctuating up and down, with several peaks and dips. Even that, the minimum value over TKN_Year has been recorded in December. </t>
         </is>
       </c>
       <c r="Y230" t="n">
@@ -21178,12 +21178,12 @@
       </c>
       <c r="W231" t="inlineStr">
         <is>
-          <t>The production of rye in Canada during 2018 is represented in the following graph.</t>
+          <t>The production of rye in Canada during 2018 is represented in the following graph. The unit given is tonnes. Production remains mainly stable throughout January to March at approximately 13000 tonnes. There is a small increase during April and May, followed by a minor decline during June and July. The maximum production of rye takes place during August with approximately 42000 tonnes. From August to December the production drastically decreases until it reaches its minimum of 7000 in December. </t>
         </is>
       </c>
       <c r="X231" t="inlineStr">
         <is>
-          <t>The TKN_About rye in TKN_Geo during TKN_Year is represented in the following graph.</t>
+          <t>The TKN_About in TKN_Geo during TKN_Year is represented in the following graph. The unit given is tonnes. Production remains mainly stable throughout January to March at approximately 16 tonnes. There is a small increase during April and May, followed by a minor decline during June and July. The maximum TKN_About takes place during August with approximately 101 tonnes. From August to December TKN_About drastically decreases until it reaches its minimum of -1 in December. </t>
         </is>
       </c>
       <c r="Y231" t="n">
@@ -21268,12 +21268,12 @@
       </c>
       <c r="W232" t="inlineStr">
         <is>
-          <t>A figure indicating canola production in Canada each month in 2018.</t>
+          <t>A figure indicating canola production in Canada each month in 2018. There do not seem to be any seasonal trends in the production. The maximum production occurred in October, at over 1400000 tonnes; and production fell below 600000 tonnes in February, August and September. </t>
         </is>
       </c>
       <c r="X232" t="inlineStr">
         <is>
-          <t>A figure indicating canola production in TKN_Geo each month in TKN_Year.</t>
+          <t>A figure indicating TKN_About in TKN_Geo each month in TKN_Year. There do not seem to be any seasonal trends in the production. The TKN_About occurred in October, at over 97 TKN_UOM; and production fell below 10 TKN_UOM in February, August and September. </t>
         </is>
       </c>
       <c r="Y232" t="n">
@@ -21358,12 +21358,12 @@
       </c>
       <c r="W233" t="inlineStr">
         <is>
-          <t>This graph represents the Canadian production of Canola in 2018.</t>
+          <t>This graph represents the Canadian production of Canola in 2018. The given unit are tonnes. Production starts off at approximately 1150000 during January, after which a sharp decline is observed during February, reaching below 600000. Production fluctuates between March and June, after which a rapid decline takes place again, reaching the lowest production values of the year in August at 500000. Staying mostly constant in September, there is a significant rise peaking in October above 1400000. Production of Canola declines again during November, and hardly changes for December at around 900000. </t>
         </is>
       </c>
       <c r="X233" t="inlineStr">
         <is>
-          <t>This graph represents the Canadian production TKN_About in TKN_Year.</t>
+          <t>This graph represents the Canadian TKN_About in TKN_Year. The given unit are tonnes. Production starts off at approximately 70 during January, after which a sharp decline is observed during February, reaching below 10. Production fluctuates between March and June, after which a rapid decline takes place again, reaching the lowest TKN_About the year in August at -1. Staying mostly constant in September, there is a significant rise peaking in October above 97. Production of Canola declines again during November, and hardly changes for December at around 42. </t>
         </is>
       </c>
       <c r="Y233" t="n">
@@ -21448,12 +21448,12 @@
       </c>
       <c r="W234" t="inlineStr">
         <is>
-          <t>The graph shows the values about the production of Wheat flour in Canada over 2018.</t>
+          <t>The graph shows the values about the production of Wheat flour in Canada over 2018. The values are described using tonnes as unit of measure. There is a drop from January to February. It's possible to see how the production value rapidly increased from February to April. Then from April to December the production value slightly decreased, showing few light fluctuations. </t>
         </is>
       </c>
       <c r="X234" t="inlineStr">
         <is>
-          <t>The graph shows the values about the production TKN_About in TKN_Geo over TKN_Year.</t>
+          <t>The graph shows the values about the TKN_About in TKN_Geo over TKN_Year. The values are described using TKN_UOM TKN_About measure. There is a drop from January to February. It's possible to see TKN_About value rapidly increased from February to April. Then from April to TKN_About value slightly decreased, showing few light fluctuations. </t>
         </is>
       </c>
       <c r="Y234" t="n">
@@ -21538,12 +21538,12 @@
       </c>
       <c r="W235" t="inlineStr">
         <is>
-          <t>The accompanying graph shows the yearly developement of wheat flower production in tonnes in 2018.</t>
+          <t>The accompanying graph shows the yearly developement of wheat flower production in tonnes in 2018. The starting point in January is around 30,000 tons, with an increase to peak production  in April with over 43,000 tons and a following decline to just under 35,000 tons. After a slight increase the production plummited to just over 20,000 tons in September and fell to its lowest point of around 17,000 tons in December. </t>
         </is>
       </c>
       <c r="X235" t="inlineStr">
         <is>
-          <t>The accompanying graph shows the TKN_About wheat flower production in tonnes in TKN_Year.</t>
+          <t>The accompanying graph shows the yearly developement TKN_About in TKN_UOM in TKN_Year. The starting point in January is around 30,000 tons, with an increase TKN_About  in April with over 43,000 tons and a following decline to just under 35,000 tons. After a slight TKN_About plummited to just over 20,000 tons in September and fell to its lowest point of around 17,000 tons in December. </t>
         </is>
       </c>
       <c r="Y235" t="n">
@@ -21628,12 +21628,12 @@
       </c>
       <c r="W236" t="inlineStr">
         <is>
-          <t>The graph shows the production of wheat flour (in tonnes) in Canada in the year 2018.</t>
+          <t>The graph shows the production of wheat flour (in tonnes) in Canada in the year 2018. Production is very different over the year. While a significant decline in production can be observed from January to February, production continues to rise until April, reaching its annual maximum of more than 42000 tonnes. This is followed by a more or less constant decline, until in December with 10000 tonnes the minimum of production is reached. </t>
         </is>
       </c>
       <c r="X236" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About (in tonnes) in TKN_Geo in the year TKN_Year.</t>
+          <t>The graph shows the TKN_About (in tonnes) in TKN_Geo in the year TKN_Year. Production is very different over the year. While a significant TKN_About can be observed from January to February, production continues to rise until April, reaching its annual maximum of more than 99 tonnes. This is followed by a more or less constant decline, until in December with -32 TKN_UOM the TKN_About is reached. </t>
         </is>
       </c>
       <c r="Y236" t="n">
@@ -21718,12 +21718,12 @@
       </c>
       <c r="W237" t="inlineStr">
         <is>
-          <t>The following line chart is about the production of malt in Canada 2018.</t>
+          <t>The following line chart is about the production of malt in Canada 2018. The values are reported using tonnes as unit of measure. It clearly possible to see several peaks and dips of production over the year. In particular, the maximum values have been recorded during March and July. It's also illustrated a significant fall of the production from July to August. </t>
         </is>
       </c>
       <c r="X237" t="inlineStr">
         <is>
-          <t>The following line chart is about the TKN_About malt in TKN_Geo TKN_Year.</t>
+          <t>The following line chart is about the TKN_About in TKN_Geo TKN_Year. The values are reported using TKN_UOM as TKN_About measure. It clearly possible to see several peaks and dips TKN_About over the year. In particular, the maximum values have been recorded during March and July. It's also illustrated a significant fall TKN_About from July to August. </t>
         </is>
       </c>
       <c r="Y237" t="n">
@@ -21808,12 +21808,12 @@
       </c>
       <c r="W238" t="inlineStr">
         <is>
-          <t>The production of malt in Canada reported some strong oscillations of the value during 2018.</t>
+          <t>The production of malt in Canada reported some strong oscillations of the value during 2018. As it's possible to see from the graph, several peaks and dips have been registered. The most significant peaks were during March and July. The most considerable dips during September and December. Furthermore, a marked drop of the production value was registered between July and August 2018. </t>
         </is>
       </c>
       <c r="X238" t="inlineStr">
         <is>
-          <t>The TKN_About malt in TKN_Geo reported some strong oscillations of the value during TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo reported some strong oscillations of the value during TKN_Year. As it's possible to see from the graph, several peaks and dips have been registered. The most significant peaks were during March and July. The most considerable dips during September and December. Furthermore, a marked drop TKN_About value was registered between July and August TKN_Year. </t>
         </is>
       </c>
       <c r="Y238" t="n">
@@ -21898,12 +21898,12 @@
       </c>
       <c r="W239" t="inlineStr">
         <is>
-          <t>The following graph is about the production of rye in Canada during 2017; the values are in tonnes.</t>
+          <t>The following graph is about the production of rye in Canada during 2017; the values are in tonnes. It shows a clearly growth from January over, reaching its maximum value during October. Then it's possible to see a significant drop from October to November. </t>
         </is>
       </c>
       <c r="X239" t="inlineStr">
         <is>
-          <t>The following graph is about the TKN_About rye in TKN_Geo during TKN_Year; the values are in tonnes.</t>
+          <t>The following graph is about the TKN_About in TKN_Geo during TKN_Year; the values are in tonnes. It shows a clearly growth from January over, reaching its maximum value during October. Then it's possible to see a significant drop from October to November. </t>
         </is>
       </c>
       <c r="Y239" t="n">
@@ -21988,12 +21988,12 @@
       </c>
       <c r="W240" t="inlineStr">
         <is>
-          <t>The graph illustrates the production of rye in canada in the year 2017.</t>
+          <t>The graph illustrates the production of rye in canada in the year 2017. The production is very low in the first third of the year, before it rises sharply until October, reaching a maximum of 20,000 tonnes. Then the production decrease again for the remaining months of the year. </t>
         </is>
       </c>
       <c r="X240" t="inlineStr">
         <is>
-          <t>The graph illustrates the TKN_About rye in canada in the year TKN_Year.</t>
+          <t>The graph illustrates the TKN_About in canada in the year TKN_Year. The production is very low in the first third of the year, before it rises sharply until October, reaching a maximum of 20,000 tonnes. Then TKN_About decrease again for the remaining months of the year. </t>
         </is>
       </c>
       <c r="Y240" t="n">
@@ -22078,12 +22078,12 @@
       </c>
       <c r="W241" t="inlineStr">
         <is>
-          <t>This figure represents the Canadian production of rye during 2017.</t>
+          <t>This figure represents the Canadian production of rye during 2017. The given unit are tonnes. Production remains mostly stable throughout the months of January until May, around 6000 to 8000 tonnes. Following this there is a sharp increase in June, with the production plateauing throughout August at approximately 15000 tonnes. The highest production can be observed during October with nearly 20000. Rye production experiences a sharp drop in November, reaching around 75000 tonnes. There is a minimal increase during December. </t>
         </is>
       </c>
       <c r="X241" t="inlineStr">
         <is>
-          <t>This figure represents the Canadian TKN_About rye during TKN_Year.</t>
+          <t>This figure represents the Canadian TKN_About during TKN_Year. The given unit are tonnes. Production remains mostly stable throughout the months of January until May, around 3 to 17 tonnes. Following this there is a sharp increase in June, with TKN_About plateauing throughout August at approximately 65 tonnes. The TKN_About can be observed during October with nearly 100. Rye production experiences a sharp drop in November, reaching around 481 tonnes. There is a minimal increase during December. </t>
         </is>
       </c>
       <c r="Y241" t="n">
@@ -22168,12 +22168,12 @@
       </c>
       <c r="W242" t="inlineStr">
         <is>
-          <t>The diagramm showes the production of Canola in tonnes over the year 2017.</t>
+          <t>The diagramm showes the production of Canola in tonnes over the year 2017. The Graphe fluctuates a lot over the Year. Ther are peaks in January, April/May, October and December. The highest production is reached in October. There are also monthes with a low production of Canola: February, August and November. The lowst production is reached in August. </t>
         </is>
       </c>
       <c r="X242" t="inlineStr">
         <is>
-          <t>The diagramm showes the production TKN_About in tonnes over the year TKN_Year.</t>
+          <t>The diagramm showes the TKN_About in TKN_UOM over the year TKN_Year. The Graphe fluctuates a lot over the Year. Ther are peaks in January, April/May, October and December. The TKN_About is reached in October. There are also monthes with a low TKN_About Canola: February, August and November. The TKN_About is reached in August. </t>
         </is>
       </c>
       <c r="Y242" t="n">
@@ -22258,12 +22258,12 @@
       </c>
       <c r="W243" t="inlineStr">
         <is>
-          <t>The production of Canola in Canada strongly oscillated over 2017.</t>
+          <t>The production of Canola in Canada strongly oscillated over 2017. It's clearly possible to see how it reported several peaks and dips. The highest value was during October 2017. The minimum value was in August 2017. </t>
         </is>
       </c>
       <c r="X243" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo strongly oscillated over TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo strongly oscillated over TKN_Year. It's clearly possible to see how it reported several peaks and dips. The highest value was during October TKN_Year. The minimum value was in August TKN_Year. </t>
         </is>
       </c>
       <c r="Y243" t="n">
@@ -22348,12 +22348,12 @@
       </c>
       <c r="W244" t="inlineStr">
         <is>
-          <t>Malt production in Canada in 2017.</t>
+          <t>Malt production in Canada in 2017. The production trends were fairly smooth for most of the year, rising from January to May, falling from August to November, and staying at or above 50000 tonnes until the end of the year. By comparison, June and July showed strong fluctuations in production, and the value dropped to its all-year low of under 40000 tonnes in December. </t>
         </is>
       </c>
       <c r="X244" t="inlineStr">
         <is>
-          <t>Malt production in TKN_Geo in TKN_Year.</t>
+          <t>Malt production in TKN_Geo in TKN_Year. The production trends were fairly smooth for most of the year, rising from January to May, falling from August to November, and staying at or above 47 TKN_UOM until the end of the year. By comparison, June and July showed strong fluctuations in production, and the value dropped to its all-year TKN_About under 4 TKN_UOM in December. </t>
         </is>
       </c>
       <c r="Y244" t="n">
@@ -22438,12 +22438,12 @@
       </c>
       <c r="W245" t="inlineStr">
         <is>
-          <t>The given graph shows the malt production in tons in Canada in 2017.</t>
+          <t>The given graph shows the malt production in tons in Canada in 2017. The Graph continuously rises from 52,000 tons in January to 60,000 in May, falls back to 53,000 in June and rises to 63,000 in July. The following months just show a steady decrease of production. The lowest point is reached in December with under 40,000 tons. </t>
         </is>
       </c>
       <c r="X245" t="inlineStr">
         <is>
-          <t>The given graph shows the malt production in tons in TKN_Geo in TKN_Year.</t>
+          <t>The given graph shows the TKN_About in tons in TKN_Geo in TKN_Year. The Graph continuously rises from 52,000 tons in January to 60,000 in May, falls back to 53,000 in June and rises to 63,000 in July. The following months just show a steady TKN_About production. The lowest point is reached in December with under 40,000 tons. </t>
         </is>
       </c>
       <c r="Y245" t="n">
@@ -22528,12 +22528,12 @@
       </c>
       <c r="W246" t="inlineStr">
         <is>
-          <t>A graph showing the Canadian production of malt in tonnes over the course of the year 2017.</t>
+          <t>A graph showing the Canadian production of malt in tonnes over the course of the year 2017. The production was highest in August and then steadily decreased. </t>
         </is>
       </c>
       <c r="X246" t="inlineStr">
         <is>
-          <t>A graph showing the Canadian TKN_About malt in tonnes over the course of the year TKN_Year.</t>
+          <t>A graph showing the Canadian TKN_About in TKN_UOM over the course of the year TKN_Year. The production was highest in August and then steadily decreased. </t>
         </is>
       </c>
       <c r="Y246" t="n">
@@ -22618,12 +22618,12 @@
       </c>
       <c r="W247" t="inlineStr">
         <is>
-          <t>This chart shows the production of oats, measured in Tonnes, in Canada.</t>
+          <t>This chart shows the production of oats, measured in Tonnes, in Canada. Generally, production fluctuates quite a lot month to month. Production starts at a middling level in January, with wide oscillations until July. After July, production increases consistently until reaching a maximum in September, before then gradually decreasing until reaching a level similiar to January in December. </t>
         </is>
       </c>
       <c r="X247" t="inlineStr">
         <is>
-          <t>This chart shows the TKN_About oats, measured in TKN_UOM, in TKN_Geo.</t>
+          <t>This chart shows the TKN_About oats, measured in TKN_UOM, in TKN_Geo. Generally, production fluctuates quite a lot month to month. Production starts at a middling level in January, with wide oscillations until July. After TKN_About increases consistently until reaching a maximum in September, before then gradually decreasing until reaching a level similiar to January in December. </t>
         </is>
       </c>
       <c r="Y247" t="n">
@@ -22708,12 +22708,12 @@
       </c>
       <c r="W248" t="inlineStr">
         <is>
-          <t>The accompanying graph shows the fluctuation in oat production in tons in Canada in the year 2016 divided by months.</t>
+          <t>The accompanying graph shows the fluctuation in oat production in tons in Canada in the year 2016 divided by months. Between January and July it fluctuates heavily followed by a rise to over 200,000 tons in September. The next few months show a continuous decline to the end point at 140,000 tons in December. </t>
         </is>
       </c>
       <c r="X248" t="inlineStr">
         <is>
-          <t>The accompanying graph shows the fluctuation in oat production in tons in TKN_Geo in the year TKN_Year divided by months.</t>
+          <t>The accompanying graph shows the fluctuation in TKN_About in tons in TKN_Geo in the year TKN_Year divided by months. Between January and July it fluctuates heavily followed by a rise to over 200,000 tons in September. The next few months show a continuous decline to the end point at 140,000 tons in December. </t>
         </is>
       </c>
       <c r="Y248" t="n">
@@ -22803,7 +22803,7 @@
       </c>
       <c r="X249" t="inlineStr">
         <is>
-          <t>The graph shows the oats production over the TKN_About TKN_Year. The graph stayed in the TKN_About about 2 and 94 tonnes. It has a zig-zag waveform from January to August, before a last peak in September and then decreasing in the last TKN_About the year. </t>
+          <t>The graph shows the TKN_About over the year of TKN_Year. The graph stayed in the TKN_About about 2 and 94 tonnes. It has a zig-zag waveform from January to August, before a last peak in September and then decreasing in the last TKN_About the year. </t>
         </is>
       </c>
       <c r="Y249" t="n">
@@ -22893,7 +22893,7 @@
       </c>
       <c r="X250" t="inlineStr">
         <is>
-          <t>In this graph, the TKN_About rye in TKN_Geo is illustrated. The x-axis shows the TKN_About the year of TKN_Year, whereas the y-axis depicts the production in tonnes. Values in August and September stand out, reaching almost 102 in September. During the remaining TKN_About the year, production is comparably lower. </t>
+          <t>In this graph, the TKN_About in TKN_Geo is illustrated. The x-axis shows the TKN_About the year of TKN_Year, whereas the y-axis depicts the production in tonnes. Values in August and September stand out, reaching almost 102 in September. During the remaining months TKN_About is comparably lower. </t>
         </is>
       </c>
       <c r="Y250" t="n">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="X251" t="inlineStr">
         <is>
-          <t>The grapg shows the TKN_About rye in canada in the year of TKN_Year. While production is very low during the winter months, more is produced during the summer months. In September, the annual TKN_About almost 25,000 tonnes is reached. A TKN_About work for the farmers in this season of the year I guess. </t>
+          <t>The grapg shows the TKN_About in canada in the year of TKN_Year. While production is very low during the winter months, more is produced during the summer months. In September, the annual TKN_About almost 25,000 TKN_UOM is reached. A TKN_About work for the farmers in this season of the year I guess. </t>
         </is>
       </c>
       <c r="Y251" t="n">
@@ -23073,7 +23073,7 @@
       </c>
       <c r="X252" t="inlineStr">
         <is>
-          <t>The graph illustrates the productioin TKN_About in tonnes in TKN_Year. The first few montes till May the graph stays quite constant at a low TKN_About about 2 tonnes, besides a small peak in March up to nearly 27 tonnes. The graph starts to increase continusly from May to July. Afterwards it increase rapidly till the maxumum value in September. The next few monthes till the TKN_About the year ithe graph decreases. </t>
+          <t>The graph illustrates the productioin TKN_About in TKN_UOM in TKN_Year. The first few montes till May the graph stays quite constant at a low TKN_About about 2 tonnes, besides a small peak in March up to nearly 27 tonnes. The graph starts to increase continusly from May to July. Afterwards it increase rapidly till the maxumum value in September. The next few monthes till the TKN_About the year ithe graph decreases. </t>
         </is>
       </c>
       <c r="Y252" t="n">
@@ -23163,7 +23163,7 @@
       </c>
       <c r="X253" t="inlineStr">
         <is>
-          <t>The TKN_About canola in tonnes in TKN_Geo during TKN_Year is shown in this line chart. Production sharply increases from January until March. During the following months production fluctuates in an overall decreasing manner until it reaches its minimum in August. There is a sharp gain in TKN_About candle from August until reaching the maximum of over 95 in December. </t>
+          <t>The TKN_About in TKN_UOM in TKN_Geo during TKN_Year is shown in this line chart. Production sharply increases from January until March. During the following TKN_About fluctuates in an overall decreasing manner until it reaches its minimum in August. There is a sharp gain in TKN_About candle from August until reaching the maximum of over 95 in December. </t>
         </is>
       </c>
       <c r="Y253" t="n">
@@ -23253,7 +23253,7 @@
       </c>
       <c r="X254" t="inlineStr">
         <is>
-          <t>This is a canola production graph, showing the amount produced in tonnes for the year TKN_Year. Production stayed within the range of 6 to about 99 tonnes during the year. Production started just under 41 tonnes in January and rose to above 77 tonnes in March. It then dips to under 6 tonnes in August, with acute increases in May and July, before experiencing a continuous rise to above 95 tonnes in December. </t>
+          <t>This is a TKN_About graph, showing the amount produced in TKN_UOM for the year TKN_Year. Production stayed within the range of 6 to about 99 TKN_UOM during the year. Production started just under 41 TKN_UOM in January and rose to above 77 TKN_UOM in March. It then dips to under 6 TKN_UOM in August, with acute increases in May and July, before experiencing a continuous rise to above 95 TKN_UOM in December. </t>
         </is>
       </c>
       <c r="Y254" t="n">
@@ -23343,7 +23343,7 @@
       </c>
       <c r="X255" t="inlineStr">
         <is>
-          <t>This figure represents the production TKN_About in TKN_Geo during TKN_Year. The unit given is tonnes. In January production lies at approximately 38 tonnes. During the following -101 months the production increases. From March until August the production fluctuates until reaching the minimum during August with -91. Production sharply increases throughout the months August to December, reaching its peak at the end of the year with approximately 100 tonnes. </t>
+          <t>This figure represents the TKN_About in TKN_Geo during TKN_Year. The unit given is tonnes. In TKN_About lies at approximately 38 tonnes. During the following -101 months TKN_About increases. From March until August TKN_About fluctuates until reaching the minimum during August with -91. Production sharply increases throughout the months August to December, reaching its peak at the end of the year with approximately 100 tonnes. </t>
         </is>
       </c>
       <c r="Y255" t="n">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="X256" t="inlineStr">
         <is>
-          <t>This line chart illustrates the production TKN_About (in tonnes) of TKN_Geo in TKN_Year. Production starts very low in January at approximately 0 tonnes. From there on production starts oscillating a lot, having a peak during February, a low in March and reaching the maximum during April. There is a sharp decline from April until May, after which production starts fluctuating again until September. There is a rapid jump in October reaching almost 95 tonnes. A very slight increase can be observed for November, after which the production drops in December. </t>
+          <t>This line chart illustrates the TKN_About (in tonnes) of TKN_Geo in TKN_Year. Production starts very low in January at approximately 0 tonnes. From TKN_About starts oscillating a lot, having a peak during February, a low in March and reaching the maximum during April. There is a sharp decline from April until May, TKN_About starts fluctuating again until September. There is a rapid jump in October reaching almost 95 tonnes. A very slight increase can be observed for November, after TKN_About drops in December. </t>
         </is>
       </c>
       <c r="Y256" t="n">
@@ -23523,7 +23523,7 @@
       </c>
       <c r="X257" t="inlineStr">
         <is>
-          <t>As it's shown in the graph, the production value TKN_About in TKN_Geo during TKN_Year has been strongly fluctuating. The unit of measurement is tonnes. The graph shows several peaks, but the maximum values have been recorded during TKN_About April, Octoeber and November. At the same time, the months with less production TKN_About have been January and July. </t>
+          <t>As it's shown in the graph, the TKN_About in TKN_Geo during TKN_Year has been strongly fluctuating. The unit of measurement is tonnes. The graph shows several peaks, but the maximum values have been recorded during TKN_About April, Octoeber and November. At the same time, the months with less TKN_About have been January and July. </t>
         </is>
       </c>
       <c r="Y257" t="n">
@@ -23613,7 +23613,7 @@
       </c>
       <c r="X258" t="inlineStr">
         <is>
-          <t>This figure shows the Canadian production TKN_About of TKN_Year. Production is measured in tonnes. Production is the lowest during the month of January at approximately 0. There is a sharp increase for February, reaching 59 tonnes, after which a drop is experienced during March. The maximum production TKN_About is taking place in April at above 100 tonnes. Production is rather low during May. During the following months production fluctuates until a sharp increase in observed for October, reaching nearly 95 tonnes. Production remains nearly steady throughout November and drops back to 50 during December. </t>
+          <t>This figure shows the Canadian TKN_About of TKN_Year. Production is measured in tonnes. Production is the lowest during the month of January at approximately 0. There is a sharp increase for February, reaching 59 tonnes, after which a drop is experienced during March. The maximum TKN_About is taking place in April at above 100 tonnes. Production is rather low during May. During the TKN_About fluctuates until a sharp increase in observed for October, reaching nearly 95 tonnes. Production remains nearly steady throughout November and drops back to 50 during December. </t>
         </is>
       </c>
       <c r="Y258" t="n">
